--- a/data/hotels_by_city/Houston/Houston_shard_350.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_350.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6563513-Reviews-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-Downtown.h8168134.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2109 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r600597280-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6563513</t>
+  </si>
+  <si>
+    <t>600597280</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Downtown, and have to compliment the great service I received from the front desk gentleman that made my stay one of the greatest I have ever experienced in my life!!! Thanks Rene, will definitely stay here again!!!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r597734054-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597734054</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Cool Place on a HOT Summer's Day</t>
+  </si>
+  <si>
+    <t>We spent several days here during a convention and enjoyed the hospitality of the staff and the extra mile service from the staff who fixed our desk chair and found us some great pillows. The bartender at Burger Theory is a keeper; Taylor enjoys her work andis knowledgeable about her food and drink. We heard the air conditioning system was recently replaced after the deluge, and we look forward to staying here again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r597172570-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597172570</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great friendly atmosphere ...</t>
+  </si>
+  <si>
+    <t>Hotel was a great deal for the area...  "Renee" front desk agent... THE BEST.. HE WAS SO HELPFUL.  An A+ for customer service.  He made our stay so enjoyable.  The amenities were great. The restaurant was great as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r595406688-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595406688</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>The staff is incredible here</t>
+  </si>
+  <si>
+    <t>The staff here is so friendly and accommodating.  I always enjoy my time here whenever I stay.  I was lucky enough to be here on a Wednesday when they provide free food food and drinks on the terrace overlooking the skyline of downtown.  Nyasha, Matt, and Ricardo always make me feel like home whenever I’m here.  The service here is just so incredible that I can’t imagine going anywhere else whenever I need to book a room in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r595405440-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595405440</t>
+  </si>
+  <si>
+    <t>Nice clean hotel in the action of downtown</t>
+  </si>
+  <si>
+    <t>I love this hotel! It’s nice and clean and the rooms are decent sized. At their restaurant Burger Theory I highly recommend getting the:-Lone star burger with garlic mayo instead of bbq -Fish sandwich with garlic mayo instead of tarter sauceThat burger is the best ever, and the sandwich has a huge fresh cod filet they make from a fresh cod fish daily. Also on Wednesday’s from 5-7pm they have free beer and wine and finger foods on the terrace on the 2nd floor. It’s very relaxing, and there’s an amazing view of the city.The hotel staff, management, and bartenders are all very friendly and helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r595373394-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595373394</t>
+  </si>
+  <si>
+    <t>Amazing Stay during my sorority Boule July 2018!</t>
+  </si>
+  <si>
+    <t>Our stay at your establishment was great! Everyone in the hotel and in Burger Theory went above and beyond to make us feel comfortable and supply our every need. I want to send a special shout out to Nikeisha at the front desk.She was extremely pleasant. I had a concern Nikeisha was able to correct in record time and with a smile. I would recommend this hotel to anyone who is staying in the Downtown Area of Houston!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r592809651-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592809651</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Poor business management</t>
+  </si>
+  <si>
+    <t>The rooms were good and the hotel staff great.  However, the business management was lacking in disclosure, follow-through, oversight and overall responsiveness.  They originally booked the rooms incorrectly (too many nights), then lost a deposit check.  I checked in the night prior to arriving (an early morning arrival - I paid for the extra night to hold the room for 9 am) and they still gave away all four rooms booked, making us wait to actually get into a room.  Upon departing we were charged double (STILL waiting for the reimbursement on my credit card), was charged a $50 fee (non-disclosed on any paperwork provided) and then they attempted to charge for a night AFTER we checked out.  The management responsiveness has been awful.  For a headache-free stay, go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The rooms were good and the hotel staff great.  However, the business management was lacking in disclosure, follow-through, oversight and overall responsiveness.  They originally booked the rooms incorrectly (too many nights), then lost a deposit check.  I checked in the night prior to arriving (an early morning arrival - I paid for the extra night to hold the room for 9 am) and they still gave away all four rooms booked, making us wait to actually get into a room.  Upon departing we were charged double (STILL waiting for the reimbursement on my credit card), was charged a $50 fee (non-disclosed on any paperwork provided) and then they attempted to charge for a night AFTER we checked out.  The management responsiveness has been awful.  For a headache-free stay, go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r591675271-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591675271</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Burger Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stopped in to Burger Theory inside the hotel on Thursday (06/29/18) and was VERY impressed with the service. Adrian (guy behind the bar) was friendly, attentive, gave FANTASTIC service, and even offered amazing suggestions for places to visit in the area. I am staying in Houston for the week, so this was VERY helpful. I don’t write reviews often, but he definitely deserves one. Whenever I am I town I will definitely be visiting Adrian at Burger Theory. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r591669327-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591669327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burger Theory </t>
+  </si>
+  <si>
+    <t>I went to Burger Theory yesterday, sat at the bar ,Adrian suggested to try the Farm fresh burger with a veggie patty want a great choice and the sweet potato fries were crispy and seasoned well. I will definitely be back, thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r589837041-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589837041</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Chef Young cooks up some mean food in the hotel restaurant! The buffet is tasty and convenient.</t>
+  </si>
+  <si>
+    <t>I stayed over a week at the hotel and can confidently say that Chef Young cooks up some mean, tasty food in the hotel restaurant! She is such a warm and cheery person, and she always goes the extra mile to make your dining experience memorable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r589616848-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589616848</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>A friendly place at the end of your day</t>
+  </si>
+  <si>
+    <t>Traveling for business can be mundane, but the Holiday Inn makes your stay a bit more exciting. From Clay at the front desk, to Tom and Courtney at Burger Theory, each are interested in making sure you are comfortable and your needs are met while away from home. Good beers, good food and good attitudes go a long way.  Will definitely be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r587941446-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587941446</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Best food and beer!!</t>
+  </si>
+  <si>
+    <t>Holiday Inn on Main Street in Houston was more than accommodating for me and my family. We especially enjoyed Burger Theory inside the hotel. The food and service was absolutely amazing and Thomas was absolutely incredible. He suggested the absolute best thing on the menu along with the greatest local brewed beer!! I will definitely be back and will make it a point to stop by here every time I’m in town! My new fave place!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r586267492-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586267492</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Great getaway</t>
+  </si>
+  <si>
+    <t>Loved the hotel but Burger Theory was awesome!!!!  Great food and Adrian’s service was above average!!!!  Go to the bar and ask for him and I promise you won’t be disappointed. Friendly and informative and always with a smile. Had me coming back for more and will always stay here when I am in town just because of him.  Will absolutely come back sooon!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r586198987-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586198987</t>
+  </si>
+  <si>
+    <t>House of blues</t>
+  </si>
+  <si>
+    <t>The chef at burger theory is excellent cook.  Chef Young,    also front desk clerk NIkeisha was very helpful.    Would stay here again.   Convenient to downtown activities,  they also have shuttle service which is very nice you don't have to walk, or Uber. MoreShow less</t>
+  </si>
+  <si>
+    <t>Meghan F, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>The chef at burger theory is excellent cook.  Chef Young,    also front desk clerk NIkeisha was very helpful.    Would stay here again.   Convenient to downtown activities,  they also have shuttle service which is very nice you don't have to walk, or Uber. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r585447003-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585447003</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Burger Theory Restaurant</t>
+  </si>
+  <si>
+    <t>Great food .. and very very fresh!Highly recommend the "Tuscan Chicken Flatbread" and saladsTom (Thomas) funny, informative, ultra ppleasant, helpful bartender/ server/recommenderIf he says try something, try it for sure</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r584665971-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584665971</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Burger theory</t>
+  </si>
+  <si>
+    <t>Visited the burger theory downstairs and Thomas the bartender helped us out. He was awesome!! Very good customer service and quick! We had the Lonestar burger, on the border, and a margarita. It was very Delicious!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Meghan F, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Visited the burger theory downstairs and Thomas the bartender helped us out. He was awesome!! Very good customer service and quick! We had the Lonestar burger, on the border, and a margarita. It was very Delicious!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r584662914-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584662914</t>
+  </si>
+  <si>
+    <t>Great bar, great food! I recommend the Holliday inn downtown Houston to anyone. Rooms where clean great rates staff was very very friendly. Tom at burger theory did an amazing job! Definitely coming back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r584658791-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584658791</t>
+  </si>
+  <si>
+    <t>Incredibly disappointing, dirty with dishonest staff.</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in May. 
+Basic hotel. The bathroom floors were slimy, so i put towels down to stand on in bare feet. There were hairs on the vanity unit from the last person. Staff aren't very friendly, verging on rude.
+On the first night the power went out for approximately three hours. I hadn't been told about it beforehand. (I note there was a notice on the reception wall). Not much fun in Houston heat. I used a dive torch id packed for an upcoming trip to find my way around.
+Unfortunately upon checkout I left my torch at the hotel next to the bed. Its an expensive dive torch so one I was keen to get back. I rung from the airport to tell them (an hour after I checked out), two days later, four days later, and then another two days later. Each time I was told someone would get back to me, and never did.
+I have since emailed the manager (FeeneyM@gfhotels.com) who also hasn't responded to emails, however seems to be replying on Trip Advisor.
+In short there are some dishonest staff working here who no doubt have taken my torch home, and find it easier to avoid the subject, rather than addressing it. Management obviously doesn't want to know either. Id say its long gone on craigslist.
+If you want to stay here, perhaps don't bring any valuables, or perhaps better...I stayed here for two nights in May. Basic hotel. The bathroom floors were slimy, so i put towels down to stand on in bare feet. There were hairs on the vanity unit from the last person. Staff aren't very friendly, verging on rude.On the first night the power went out for approximately three hours. I hadn't been told about it beforehand. (I note there was a notice on the reception wall). Not much fun in Houston heat. I used a dive torch id packed for an upcoming trip to find my way around.Unfortunately upon checkout I left my torch at the hotel next to the bed. Its an expensive dive torch so one I was keen to get back. I rung from the airport to tell them (an hour after I checked out), two days later, four days later, and then another two days later. Each time I was told someone would get back to me, and never did.I have since emailed the manager (FeeneyM@gfhotels.com) who also hasn't responded to emails, however seems to be replying on Trip Advisor.In short there are some dishonest staff working here who no doubt have taken my torch home, and find it easier to avoid the subject, rather than addressing it. Management obviously doesn't want to know either. Id say its long gone on craigslist.If you want to stay here, perhaps don't bring any valuables, or perhaps better still, stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in May. 
+Basic hotel. The bathroom floors were slimy, so i put towels down to stand on in bare feet. There were hairs on the vanity unit from the last person. Staff aren't very friendly, verging on rude.
+On the first night the power went out for approximately three hours. I hadn't been told about it beforehand. (I note there was a notice on the reception wall). Not much fun in Houston heat. I used a dive torch id packed for an upcoming trip to find my way around.
+Unfortunately upon checkout I left my torch at the hotel next to the bed. Its an expensive dive torch so one I was keen to get back. I rung from the airport to tell them (an hour after I checked out), two days later, four days later, and then another two days later. Each time I was told someone would get back to me, and never did.
+I have since emailed the manager (FeeneyM@gfhotels.com) who also hasn't responded to emails, however seems to be replying on Trip Advisor.
+In short there are some dishonest staff working here who no doubt have taken my torch home, and find it easier to avoid the subject, rather than addressing it. Management obviously doesn't want to know either. Id say its long gone on craigslist.
+If you want to stay here, perhaps don't bring any valuables, or perhaps better...I stayed here for two nights in May. Basic hotel. The bathroom floors were slimy, so i put towels down to stand on in bare feet. There were hairs on the vanity unit from the last person. Staff aren't very friendly, verging on rude.On the first night the power went out for approximately three hours. I hadn't been told about it beforehand. (I note there was a notice on the reception wall). Not much fun in Houston heat. I used a dive torch id packed for an upcoming trip to find my way around.Unfortunately upon checkout I left my torch at the hotel next to the bed. Its an expensive dive torch so one I was keen to get back. I rung from the airport to tell them (an hour after I checked out), two days later, four days later, and then another two days later. Each time I was told someone would get back to me, and never did.I have since emailed the manager (FeeneyM@gfhotels.com) who also hasn't responded to emails, however seems to be replying on Trip Advisor.In short there are some dishonest staff working here who no doubt have taken my torch home, and find it easier to avoid the subject, rather than addressing it. Management obviously doesn't want to know either. Id say its long gone on craigslist.If you want to stay here, perhaps don't bring any valuables, or perhaps better still, stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r580267535-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580267535</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Our stay</t>
+  </si>
+  <si>
+    <t>Truly enjoyed our stay.  Staff was very pleasant at check in.  Thomas (bartender &amp; waiter) in Burger Theory was amazing.  Never had to wait for service and had offered recommendations. Food was reallly good!!  The chef smiled and was friendly when he appeared from kitchen to bring out to go orders.    On Wednesday during our stay there was a complimentary event for hotel guests. There was drinks and amazing food.  Chicken wings and a chicken flautas (taco/egg roll). Matt Ontiveros and the sales manager (I forgot her name but she recently moved from Wisconsin) gave suggestions and directions for things to things to do in the area. We will be back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Truly enjoyed our stay.  Staff was very pleasant at check in.  Thomas (bartender &amp; waiter) in Burger Theory was amazing.  Never had to wait for service and had offered recommendations. Food was reallly good!!  The chef smiled and was friendly when he appeared from kitchen to bring out to go orders.    On Wednesday during our stay there was a complimentary event for hotel guests. There was drinks and amazing food.  Chicken wings and a chicken flautas (taco/egg roll). Matt Ontiveros and the sales manager (I forgot her name but she recently moved from Wisconsin) gave suggestions and directions for things to things to do in the area. We will be back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r580063539-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580063539</t>
+  </si>
+  <si>
+    <t>Good location and friendly staff</t>
+  </si>
+  <si>
+    <t>This is in a great location downtown, within walking distance of everywhere worth seeing.  Hotel greeting was really friendly, and that theme continued into the associated burger bar next door - great food and beers and great staff.  Room was very clean and comfortable and amenities were good.  Internet worked very well and overall for the price it was a Downtown bargain.  I would stay again without hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r577707465-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577707465</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Adrian at Burger Theory 10 STARS!!!</t>
+  </si>
+  <si>
+    <t>Every time I am in Houston I have to go to Burger Theory just to see Adrian!!! He is hands down the BEST bartender I’ve come in contact with in years!!! Great service and an even better personality!!! Love him!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r573441598-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573441598</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Breakfast was banging!!!</t>
+  </si>
+  <si>
+    <t>Had the buffet which had biscuits and gravy along with eggs potatoes there is fruit and what not. Scrambled eggs had mushrooms, spinach, and excellent flavoring. Then I found out that the fluffy homemade biscuits along with the eggs were made by Chef Young. She also recommended some other things to try throughout the day and just by talking to her you could really see she had a passion and love for what she was bringing to the table</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r568953335-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568953335</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel room in downtown Houston w/ Helpful Staff</t>
+  </si>
+  <si>
+    <t>I stayed here on a Saturday night for work.  I had read some reviews that weren't great so I didn't know what to expect.  From the time I arrived until the time I left the staff was very friendly and helpful.Also, if Chef Young is working the the restaurant (Burger Theory) do yourself a favor and eat there.  The breakfast I had while she was working was EXCEPTIONAL! Finally, the shuttle van is a huge help while staying here.  They drove me to multiple locations and were very glad to do so.  I will without a doubt be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Meghan F, Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here on a Saturday night for work.  I had read some reviews that weren't great so I didn't know what to expect.  From the time I arrived until the time I left the staff was very friendly and helpful.Also, if Chef Young is working the the restaurant (Burger Theory) do yourself a favor and eat there.  The breakfast I had while she was working was EXCEPTIONAL! Finally, the shuttle van is a huge help while staying here.  They drove me to multiple locations and were very glad to do so.  I will without a doubt be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r568700520-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568700520</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>It's a Holiday Inn... not much else to say</t>
+  </si>
+  <si>
+    <t>It wasn't dirty.  I guess it is fine for a normal hotel.  Nothing "Houston" about it, I always like when even the most corporate of places at least add some local flavor.  Beyond that, everything was set up just fine, Wi-Fi was very easy to get on, which was very important to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Meghan F, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>It wasn't dirty.  I guess it is fine for a normal hotel.  Nothing "Houston" about it, I always like when even the most corporate of places at least add some local flavor.  Beyond that, everything was set up just fine, Wi-Fi was very easy to get on, which was very important to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r567538367-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567538367</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Cortney, is AWESOME! Provides great service at the restaurant! Can't wait to go back! Would recommend this to everyone. The hotel service is also great. Staff is very helpful and knowledgeable. Love Houston! #USAvisit</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r566142653-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566142653</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Food, Great Hotel!</t>
+  </si>
+  <si>
+    <t>I hosted Forgiveness School for the first time at this location for 8 Saturdays beginning January 13-March 3, 2018 in the Savoy Room.  The room and the rate were perfect. The hotel location on the rail and being in downtown Houston allowed for short Uber trips by attendees.  The staff was amazing and extremely accommodating.  I was greeted in the valet area by the friendly faces of Gilbert, Mario and Zamora who gladly assisted with my teaching materials, music, etc. My signage was always properly displayed.  Charlton and Chalmers made sure my room was prepared and ready, including the beverages in the back and special requests of guests.  Nyosha was excellent at the front desk in directing my students to the room as well as making copies for me when we did not have enough. Andrew was the patient and polite server in the Burger Factory as he served us our hot, delicious meals.  Theresa Thomas was my sales consultant and she was super.  The school was a success and after 8 weeks together everyone commented on the excellent staff. WDMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I hosted Forgiveness School for the first time at this location for 8 Saturdays beginning January 13-March 3, 2018 in the Savoy Room.  The room and the rate were perfect. The hotel location on the rail and being in downtown Houston allowed for short Uber trips by attendees.  The staff was amazing and extremely accommodating.  I was greeted in the valet area by the friendly faces of Gilbert, Mario and Zamora who gladly assisted with my teaching materials, music, etc. My signage was always properly displayed.  Charlton and Chalmers made sure my room was prepared and ready, including the beverages in the back and special requests of guests.  Nyosha was excellent at the front desk in directing my students to the room as well as making copies for me when we did not have enough. Andrew was the patient and polite server in the Burger Factory as he served us our hot, delicious meals.  Theresa Thomas was my sales consultant and she was super.  The school was a success and after 8 weeks together everyone commented on the excellent staff. WDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r564016727-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564016727</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Great downtown location.  Rooms and service excellent.  This is my third stay and my first during the week.  The manager's reception served up great food and drinks. Enjoyed meeting Meagan, the GM.  Adrian and the entire restaurant team made me feel welcomed.  The Cobb Salad was excellent.  Thank you and I look forward to my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Meghan F, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Great downtown location.  Rooms and service excellent.  This is my third stay and my first during the week.  The manager's reception served up great food and drinks. Enjoyed meeting Meagan, the GM.  Adrian and the entire restaurant team made me feel welcomed.  The Cobb Salad was excellent.  Thank you and I look forward to my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r563448788-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563448788</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Comfortable stay, friendly staff</t>
+  </si>
+  <si>
+    <t>Hotel location is good and also provides shuttle service. Staff are very friendly and helpful.Breakfast options are limited specially for vegetarians; does not have the buffet breakfast which is there in many Holiday Inn hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel location is good and also provides shuttle service. Staff are very friendly and helpful.Breakfast options are limited specially for vegetarians; does not have the buffet breakfast which is there in many Holiday Inn hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r561307120-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561307120</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location </t>
+  </si>
+  <si>
+    <t>Stayed here for Marc Anthony concert. Location was good about 10 minutes walk to Toyota Center. Hotel has a shuttle that runs every 30 minutes. Metro rail is right outside hotel on Main St. Room was fine but while taking shower water pressure was terrible and hot water would go out in middle of shower. This wasn’t an isolated event either happened during EVERY shower. Don’t know if I’ll be back I like to have hot water and pressure throughout my shower. No self parking just 27$ a day valet charged to your room. We were on the 16th floor. Didn’t see elevator inspection certificates in either elevator so who knows if there up to  date.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for Marc Anthony concert. Location was good about 10 minutes walk to Toyota Center. Hotel has a shuttle that runs every 30 minutes. Metro rail is right outside hotel on Main St. Room was fine but while taking shower water pressure was terrible and hot water would go out in middle of shower. This wasn’t an isolated event either happened during EVERY shower. Don’t know if I’ll be back I like to have hot water and pressure throughout my shower. No self parking just 27$ a day valet charged to your room. We were on the 16th floor. Didn’t see elevator inspection certificates in either elevator so who knows if there up to  date.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r556540155-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556540155</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Guest Services Agent was not honest!!!!</t>
+  </si>
+  <si>
+    <t>I initially checked into the hotel on 01/04/18 due to attending a Houston Rocket’s game. The first night at the hotel was fine. However, the second night the heater stopped working. Maintenance stopped by the room to checking the unit and determined that my husband and I needed to move to another room.We moved and the second room was worse than the first room. The heating system was on and everything was fine until my husband and I retired for the evening. The system was so loud and there was a constant water sound in the walls. I followed up with the Guest Services Agent again and the individual indicated that they would make a note for the manager.When I checked out on Saturday, January 6, 2018 the Guest Service Agent indicated that I would get a credit for my Holiday Inn reward points… It is now Friday, January 26, 2018 and I have yet to receive the points that I was promised.If you are going to promise a guest ANYTHING be sure that you follow through….I WILL NOT RETURN TO THIS HOTEL AGAIN!!!!Angela RobinsonMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>I initially checked into the hotel on 01/04/18 due to attending a Houston Rocket’s game. The first night at the hotel was fine. However, the second night the heater stopped working. Maintenance stopped by the room to checking the unit and determined that my husband and I needed to move to another room.We moved and the second room was worse than the first room. The heating system was on and everything was fine until my husband and I retired for the evening. The system was so loud and there was a constant water sound in the walls. I followed up with the Guest Services Agent again and the individual indicated that they would make a note for the manager.When I checked out on Saturday, January 6, 2018 the Guest Service Agent indicated that I would get a credit for my Holiday Inn reward points… It is now Friday, January 26, 2018 and I have yet to receive the points that I was promised.If you are going to promise a guest ANYTHING be sure that you follow through….I WILL NOT RETURN TO THIS HOTEL AGAIN!!!!Angela RobinsonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r554861369-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554861369</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Hotel and food</t>
+  </si>
+  <si>
+    <t>I spent the week at the Holiday Inn downtown Houston and was very pleased with the location and accommodations, especially the onsite restaurant Burger Theory.  The food was great and the bartender Francesco was a class act.  Remembered my name, was attentive to all of the customers and recommended a really good local IPA!MoreShow less</t>
+  </si>
+  <si>
+    <t>Meghan F, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2018</t>
+  </si>
+  <si>
+    <t>I spent the week at the Holiday Inn downtown Houston and was very pleased with the location and accommodations, especially the onsite restaurant Burger Theory.  The food was great and the bartender Francesco was a class act.  Remembered my name, was attentive to all of the customers and recommended a really good local IPA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r553763818-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553763818</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Lovely and Ideal Place to Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this property to attend a dance marathon weekend.  Arrived on a Friday afternoon and checked in by Ana, very welcoming and warm person. I stayed on the 14th floor, 1408, which was great, it muted the loud traffic sounds a little bit. The bed is nice enough, not too soft nor firm. Towels are well-stocked along with the amenities. I especially appreciate the presence of the small fridge and microwave, super convenient as I am vegan. The hotel has a shuttle that can take you around within 2mi. radius, which I took advantage to go to the nearest grocery store, Randalls. Loved that Marisol Juarez of Room Service was very accommodating with my coffee supplies as I didn’t want to be disturbed by room service to begin with. Really enjoyed my stay here and will definitely come back next year for another dance marathon...:)MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this property to attend a dance marathon weekend.  Arrived on a Friday afternoon and checked in by Ana, very welcoming and warm person. I stayed on the 14th floor, 1408, which was great, it muted the loud traffic sounds a little bit. The bed is nice enough, not too soft nor firm. Towels are well-stocked along with the amenities. I especially appreciate the presence of the small fridge and microwave, super convenient as I am vegan. The hotel has a shuttle that can take you around within 2mi. radius, which I took advantage to go to the nearest grocery store, Randalls. Loved that Marisol Juarez of Room Service was very accommodating with my coffee supplies as I didn’t want to be disturbed by room service to begin with. Really enjoyed my stay here and will definitely come back next year for another dance marathon...:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r548943253-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548943253</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Efficient &amp; Affordable Business Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had 20 people staying for a business meeting and it all went very well.  It was easy to valet park and checkin.  The meeting room and meals were very affordable.  The staff was friendly and helpful.  The location is very centrally located.  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r538880547-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538880547</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Not a Typical Holiday Inn</t>
+  </si>
+  <si>
+    <t>The staffs were unhelpful and unprofessional. I specifically asked for a King Size room but got a twins bed room. When I asked for exchange, they told me there was no King Size room available. I booked it several month beforehand, how could this happen? I also asked for a higher floor and quieter room, but they gave me a room facing the main street in the 8th floor (16th floor is the highest floor). It's a shame how they didn't take customers' requests seriously. The worst thing is when I checked in, the reception told me I haven't paid my whole stay and I need to pay one more day's fee. I wasn't sure how did this happen since I asked an agency to book the room and have already paid for it long time ago. But the reception insisted that I need to get in touch with Expedia and ask them to pay the rest. Although I didn't book the room via Expedia and I didn't know why I should contact Expedia, I still did. The result is obvious: I didn't book the room from they, why should they pay for the fee. I tried my best to figure this thing out, but they staffs at the reception were indifferent and promised me to help me but I got nothing even not a call from them even through they promised several times. When I asked them why they...The staffs were unhelpful and unprofessional. I specifically asked for a King Size room but got a twins bed room. When I asked for exchange, they told me there was no King Size room available. I booked it several month beforehand, how could this happen? I also asked for a higher floor and quieter room, but they gave me a room facing the main street in the 8th floor (16th floor is the highest floor). It's a shame how they didn't take customers' requests seriously. The worst thing is when I checked in, the reception told me I haven't paid my whole stay and I need to pay one more day's fee. I wasn't sure how did this happen since I asked an agency to book the room and have already paid for it long time ago. But the reception insisted that I need to get in touch with Expedia and ask them to pay the rest. Although I didn't book the room via Expedia and I didn't know why I should contact Expedia, I still did. The result is obvious: I didn't book the room from they, why should they pay for the fee. I tried my best to figure this thing out, but they staffs at the reception were indifferent and promised me to help me but I got nothing even not a call from them even through they promised several times. When I asked them why they didn't get back to me, they simple told me they were busy and they forgot. This happened three times during my stay. Finally I got a call from the manager, but he was just interested in get additional money but refuse to hear my complain. In addition, I only got seven breakfast vouchers although I paid for 16 vouchers. Also the breakfast is horrible comparing with other holiday inn hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>The staffs were unhelpful and unprofessional. I specifically asked for a King Size room but got a twins bed room. When I asked for exchange, they told me there was no King Size room available. I booked it several month beforehand, how could this happen? I also asked for a higher floor and quieter room, but they gave me a room facing the main street in the 8th floor (16th floor is the highest floor). It's a shame how they didn't take customers' requests seriously. The worst thing is when I checked in, the reception told me I haven't paid my whole stay and I need to pay one more day's fee. I wasn't sure how did this happen since I asked an agency to book the room and have already paid for it long time ago. But the reception insisted that I need to get in touch with Expedia and ask them to pay the rest. Although I didn't book the room via Expedia and I didn't know why I should contact Expedia, I still did. The result is obvious: I didn't book the room from they, why should they pay for the fee. I tried my best to figure this thing out, but they staffs at the reception were indifferent and promised me to help me but I got nothing even not a call from them even through they promised several times. When I asked them why they...The staffs were unhelpful and unprofessional. I specifically asked for a King Size room but got a twins bed room. When I asked for exchange, they told me there was no King Size room available. I booked it several month beforehand, how could this happen? I also asked for a higher floor and quieter room, but they gave me a room facing the main street in the 8th floor (16th floor is the highest floor). It's a shame how they didn't take customers' requests seriously. The worst thing is when I checked in, the reception told me I haven't paid my whole stay and I need to pay one more day's fee. I wasn't sure how did this happen since I asked an agency to book the room and have already paid for it long time ago. But the reception insisted that I need to get in touch with Expedia and ask them to pay the rest. Although I didn't book the room via Expedia and I didn't know why I should contact Expedia, I still did. The result is obvious: I didn't book the room from they, why should they pay for the fee. I tried my best to figure this thing out, but they staffs at the reception were indifferent and promised me to help me but I got nothing even not a call from them even through they promised several times. When I asked them why they didn't get back to me, they simple told me they were busy and they forgot. This happened three times during my stay. Finally I got a call from the manager, but he was just interested in get additional money but refuse to hear my complain. In addition, I only got seven breakfast vouchers although I paid for 16 vouchers. Also the breakfast is horrible comparing with other holiday inn hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r538874782-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538874782</t>
+  </si>
+  <si>
+    <t>Ideal Room Location and great service!</t>
+  </si>
+  <si>
+    <t>Our stay this past weekend at the Holiday Inn Downtown Houston, Texas was excellent.  Not only did Chelsia(Sp?) accommodated me on my "specific room request.....King Corner Suite", but the on duty front desk Manager also gave excellent services when I mentioned some minor. issues. After my wife and I got up to our room, I mentioned to her that .(1) There were no light bulb in one of our lamps, and (2) there was no TV Remote Control in the Guest Room.  Her immediate response was, "I'll send the maintenance man right up to take care of it".............and INDEED SHE DID!!!  When my wife and I got back from dinner.........issues were resolved.  Also, when we checked out on, 11/4/17, I mentioned to her that we were being double charged for Valor Parking, and that we had already paid when I first reserved the room.  Again, "Mr. Thomas, no problem, I will take that off you bill immediately, and reissue you a corrected bill"!   Service was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay this past weekend at the Holiday Inn Downtown Houston, Texas was excellent.  Not only did Chelsia(Sp?) accommodated me on my "specific room request.....King Corner Suite", but the on duty front desk Manager also gave excellent services when I mentioned some minor. issues. After my wife and I got up to our room, I mentioned to her that .(1) There were no light bulb in one of our lamps, and (2) there was no TV Remote Control in the Guest Room.  Her immediate response was, "I'll send the maintenance man right up to take care of it".............and INDEED SHE DID!!!  When my wife and I got back from dinner.........issues were resolved.  Also, when we checked out on, 11/4/17, I mentioned to her that we were being double charged for Valor Parking, and that we had already paid when I first reserved the room.  Again, "Mr. Thomas, no problem, I will take that off you bill immediately, and reissue you a corrected bill"!   Service was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r538034330-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538034330</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Holiday inn downtown</t>
+  </si>
+  <si>
+    <t>Great location. About 1 mike to Minute Maid. Metro rail is right outside. Great staff, friendly and very helpful. Nice restaurant burger theory in the lobby that also serves breakfast. The food was good and prices reasonable. They have a shuttle that will transport you to local places. Room was clean and nice. Good view of the city. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r533581310-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533581310</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Pre flight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided to stay here prior to a morning flight from Houston. Really lovely check in staff, room was great, spacious and very comfy bed. Easy checkout and taxi ordered by reception. Would recommend. Also, food from the burger restaurant attached to the hotel was very nice. Only downside is that it’s about a 20 minute walk from the main restaurants in town. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r532730027-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532730027</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Overall ok</t>
+  </si>
+  <si>
+    <t>The room was nice and clean, the bed the best I've ever slept in.Service was friendly at the front desk as it should be.The breakfast service varied during my stay from day to day, the inconsistency was actually quite disturbing. One day orange juice is included, the next day not. One day you order a breakfast dish, the next day its a buffet. And the service was at its best slow. Most mornings I had finished eating by the time my coffee arrived. Had the breakfast not been included in my room price, I would've had it somewhere else.However, the location is good. You can easily walk to both the George R. Brown Convention center and the Toyota Arena, and the Metro poblic transport connections were good.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>The room was nice and clean, the bed the best I've ever slept in.Service was friendly at the front desk as it should be.The breakfast service varied during my stay from day to day, the inconsistency was actually quite disturbing. One day orange juice is included, the next day not. One day you order a breakfast dish, the next day its a buffet. And the service was at its best slow. Most mornings I had finished eating by the time my coffee arrived. Had the breakfast not been included in my room price, I would've had it somewhere else.However, the location is good. You can easily walk to both the George R. Brown Convention center and the Toyota Arena, and the Metro poblic transport connections were good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r532493018-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532493018</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I stayed at the HI Downtown for 6 nights, and found it to be a typical HI budget type hotel. The hotel is well located and the staff overall were friendly and efficient.It has a good shuttle service to go into the CBD. On checking in I asked if I could use the shuttle to go to the Amtrak station when I check out, and was advised yes.After check out the staff then told me the Amtrak station was out of the CBD, after some complaining they took me. The driver had a lot of trouble finding the Amtrak station, but it was not all his fault as the Houston Amtrak is very hard to locate..!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the HI Downtown for 6 nights, and found it to be a typical HI budget type hotel. The hotel is well located and the staff overall were friendly and efficient.It has a good shuttle service to go into the CBD. On checking in I asked if I could use the shuttle to go to the Amtrak station when I check out, and was advised yes.After check out the staff then told me the Amtrak station was out of the CBD, after some complaining they took me. The driver had a lot of trouble finding the Amtrak station, but it was not all his fault as the Houston Amtrak is very hard to locate..!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r528153534-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528153534</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Decent hotel conveniently located</t>
+  </si>
+  <si>
+    <t>We spent the night here before catching a flight out of IAH the next morning (DO NOT stay near that airport!).  It was nice and it's also very near a lot of things if you are downtowner.  It's not too far (you can walk but Uber is cheap) to the House of Blues, Toyota Center and Minute Maid Park.  Now there is a light rail stop only a block from the hotel and it's very convenient!  Room was a wee bit small to be honest, but clean.  Restaurant is called Burger Theory.  Decent bar food, nothing spectacular but decent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r505161483-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505161483</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Houston for pleasure</t>
+  </si>
+  <si>
+    <t>Was in town for the Manchester United soccer match.  Chose this hotel since it was downtown and not too far from the NRG Stadium.  Check in was easy.  Staff was exceptional, Latoya went above and beyond to get me train schedule information and even printed it all out for me.  There is a burger restaurant on site and a bar, both were utilized, especially the bar!  Unfortunately the 'downtown' part of the name didn't mean they were on the side of town where all the night life is, but that ended up not being that big of a deal since we did have the bar onsite.  :)  The bar staff there (young gal, unfortunately don't recall her name at the moment) was excellent as well!  Bedroom was clean, beds comfortable.  I would definitely stay here again.  Only downer was the valet parking charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Was in town for the Manchester United soccer match.  Chose this hotel since it was downtown and not too far from the NRG Stadium.  Check in was easy.  Staff was exceptional, Latoya went above and beyond to get me train schedule information and even printed it all out for me.  There is a burger restaurant on site and a bar, both were utilized, especially the bar!  Unfortunately the 'downtown' part of the name didn't mean they were on the side of town where all the night life is, but that ended up not being that big of a deal since we did have the bar onsite.  :)  The bar staff there (young gal, unfortunately don't recall her name at the moment) was excellent as well!  Bedroom was clean, beds comfortable.  I would definitely stay here again.  Only downer was the valet parking charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r500300840-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500300840</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Worth the Money</t>
+  </si>
+  <si>
+    <t>I experienced three different front desk employees and they were all wonderful. Attitudes were cheery and always smiling. The hotel was clean, the beds comfortable and the water hot. Got everything I paid for. Nice location in downtown. Not a high end hotel but perfect for a family wanting a nice place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r486012575-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486012575</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Could be 5 stars...but Front Desk Service is a big negative</t>
+  </si>
+  <si>
+    <t>The FIRST Robotics World Championships came to Houston and I had to find a place to stay to support the local high school team (Spartronics 4915). Most of the hotels were booked solid. Fortunately, a few rooms opened up at this hotel – highly rated here - and I was able to use cash and points during a very busy period. Gotta love being a loyal IHG member, both Ambassador and Platinum status because that does mean something (unlike Hilton where everyone is Gold and upgrades and extra amenities are all but gone and it costs a gazillion points for a discounted night). Here my status and an email asking the GM for help resulted in a room being ready for me after I took a redeye that landed at 4:40 am. They checked me in at 6:00 am with no additional fee. That was more than impressive as I was exhausted and needed a little sleep before the robotics first match at 8:00 am. This hotel is solid, but not quite 5 stars. On the plus side, the staff is friendly and helpful, the hotel is well maintained, housekeeping is fantastic, and the in house bar inside Burger Theory stays open until 2 am with food until midnight. The downside is that everything nearby closes early – from drugstores to food places, not a lot of options if you walk. BUT there is a Red Line metro that can...The FIRST Robotics World Championships came to Houston and I had to find a place to stay to support the local high school team (Spartronics 4915). Most of the hotels were booked solid. Fortunately, a few rooms opened up at this hotel – highly rated here - and I was able to use cash and points during a very busy period. Gotta love being a loyal IHG member, both Ambassador and Platinum status because that does mean something (unlike Hilton where everyone is Gold and upgrades and extra amenities are all but gone and it costs a gazillion points for a discounted night). Here my status and an email asking the GM for help resulted in a room being ready for me after I took a redeye that landed at 4:40 am. They checked me in at 6:00 am with no additional fee. That was more than impressive as I was exhausted and needed a little sleep before the robotics first match at 8:00 am. This hotel is solid, but not quite 5 stars. On the plus side, the staff is friendly and helpful, the hotel is well maintained, housekeeping is fantastic, and the in house bar inside Burger Theory stays open until 2 am with food until midnight. The downside is that everything nearby closes early – from drugstores to food places, not a lot of options if you walk. BUT there is a Red Line metro that can take you everywhere for $1.25 for 2 hours (or buy a pass for less for multiple day or single day travel) and you can go to where something is open. The bad: as a Platinum member, Holiday Inns just don't get it. Crowne Plazas do, Intercontinental do for Ambassador level, but Holiday Inns are cheap. At the CP in NCY, they gave me a full breakfast buffet for 2 for every day, drinks at the bar, huge welcome gift package, on and on. Same thing at most of the IC properties I stay at. Even Holiday Inn Express tries to do more and give me a better room. Here: class of room I booked. Okay, I know, they were sold out. But the amenity option: a single coupon for 1 beer at the bar. I even asked the front desk clerk for another and she looked at me like I was asking for a free room night and laughed it off. I did get a top floor – per my profile request – but the windows were so filthy I could not enjoy the view. The worse part was the shower: it would suddenly stop for a bit from apparently too many other people taking a shower at the same time and I would have to wait until the water came back! It was a pain. The pressure was among the worse of any hotel I have stayed in. So I would give this hotel a second chance as that early check in was above and beyond the call of duty, but the front desk staff still needs work, they spend more time talking to each other than the guests, they don't try to make you feel special and I was never recognized for my status when I checked in – I had to point that out. That’s a big IHG no-no, especially when I have been so loyal this year and all they had to do was look at my account. Houston, you have a problem, but it's fixable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The FIRST Robotics World Championships came to Houston and I had to find a place to stay to support the local high school team (Spartronics 4915). Most of the hotels were booked solid. Fortunately, a few rooms opened up at this hotel – highly rated here - and I was able to use cash and points during a very busy period. Gotta love being a loyal IHG member, both Ambassador and Platinum status because that does mean something (unlike Hilton where everyone is Gold and upgrades and extra amenities are all but gone and it costs a gazillion points for a discounted night). Here my status and an email asking the GM for help resulted in a room being ready for me after I took a redeye that landed at 4:40 am. They checked me in at 6:00 am with no additional fee. That was more than impressive as I was exhausted and needed a little sleep before the robotics first match at 8:00 am. This hotel is solid, but not quite 5 stars. On the plus side, the staff is friendly and helpful, the hotel is well maintained, housekeeping is fantastic, and the in house bar inside Burger Theory stays open until 2 am with food until midnight. The downside is that everything nearby closes early – from drugstores to food places, not a lot of options if you walk. BUT there is a Red Line metro that can...The FIRST Robotics World Championships came to Houston and I had to find a place to stay to support the local high school team (Spartronics 4915). Most of the hotels were booked solid. Fortunately, a few rooms opened up at this hotel – highly rated here - and I was able to use cash and points during a very busy period. Gotta love being a loyal IHG member, both Ambassador and Platinum status because that does mean something (unlike Hilton where everyone is Gold and upgrades and extra amenities are all but gone and it costs a gazillion points for a discounted night). Here my status and an email asking the GM for help resulted in a room being ready for me after I took a redeye that landed at 4:40 am. They checked me in at 6:00 am with no additional fee. That was more than impressive as I was exhausted and needed a little sleep before the robotics first match at 8:00 am. This hotel is solid, but not quite 5 stars. On the plus side, the staff is friendly and helpful, the hotel is well maintained, housekeeping is fantastic, and the in house bar inside Burger Theory stays open until 2 am with food until midnight. The downside is that everything nearby closes early – from drugstores to food places, not a lot of options if you walk. BUT there is a Red Line metro that can take you everywhere for $1.25 for 2 hours (or buy a pass for less for multiple day or single day travel) and you can go to where something is open. The bad: as a Platinum member, Holiday Inns just don't get it. Crowne Plazas do, Intercontinental do for Ambassador level, but Holiday Inns are cheap. At the CP in NCY, they gave me a full breakfast buffet for 2 for every day, drinks at the bar, huge welcome gift package, on and on. Same thing at most of the IC properties I stay at. Even Holiday Inn Express tries to do more and give me a better room. Here: class of room I booked. Okay, I know, they were sold out. But the amenity option: a single coupon for 1 beer at the bar. I even asked the front desk clerk for another and she looked at me like I was asking for a free room night and laughed it off. I did get a top floor – per my profile request – but the windows were so filthy I could not enjoy the view. The worse part was the shower: it would suddenly stop for a bit from apparently too many other people taking a shower at the same time and I would have to wait until the water came back! It was a pain. The pressure was among the worse of any hotel I have stayed in. So I would give this hotel a second chance as that early check in was above and beyond the call of duty, but the front desk staff still needs work, they spend more time talking to each other than the guests, they don't try to make you feel special and I was never recognized for my status when I checked in – I had to point that out. That’s a big IHG no-no, especially when I have been so loyal this year and all they had to do was look at my account. Houston, you have a problem, but it's fixable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r480904799-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480904799</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Smells like a sewer and water is light brown.</t>
+  </si>
+  <si>
+    <t>On recent visit Had to stay in this hotel because of a volleyball tournament at George R. Brown all others were booked or I would have left. The minute you walk in the lobby you could smell an odor. Thought maybe from restaurant in the lobby. Got to the room same smell. But still thought it would be okay. After returning from the tournament went to pour a bath and noticed the water was a light brown color. Okay there is something wrong here. Tried to find another hotel but nothing available. So I'm stuck with the smell and brown water. Front desk said they will get with maintenance. I have to say the front desk was extremely helpful and got us some bottled water and apologized with a 20% discount. But I will NEVER stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>On recent visit Had to stay in this hotel because of a volleyball tournament at George R. Brown all others were booked or I would have left. The minute you walk in the lobby you could smell an odor. Thought maybe from restaurant in the lobby. Got to the room same smell. But still thought it would be okay. After returning from the tournament went to pour a bath and noticed the water was a light brown color. Okay there is something wrong here. Tried to find another hotel but nothing available. So I'm stuck with the smell and brown water. Front desk said they will get with maintenance. I have to say the front desk was extremely helpful and got us some bottled water and apologized with a 20% discount. But I will NEVER stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r480569512-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480569512</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>DISAPPOINTED</t>
+  </si>
+  <si>
+    <t>My first complaint is when I booked the room I was told overnight parking in their garage was $10, upon arrival we find out it's actually $27 and Valet only, which I don't like.  Sure we could have parked in one of the lots along the street, but point is I was told $10 and no mention of valet only.  Then first time we flushed the toilet it broke, had to have maintenance come fix it, then later at night the water coming out of our faucet was brownish. Not a lot of counter space in bathroom.  Overall, we were not impressed.  VERY small rooms, not very many snacks in the store area, no vending machines to choose from either, and for some maintenance reasons the restaurant stopped serving food at 4 PM on a Saturday, poor planning in my opinion! No refrigerator in rooms or complimentary bottles of water.  For the same  price  (actually Express is a little cheaper)we much prefer the Holiday Inn Express a few blocks over, but that was booked so we figured we would stay with Holiday Inn.  We know better for next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>My first complaint is when I booked the room I was told overnight parking in their garage was $10, upon arrival we find out it's actually $27 and Valet only, which I don't like.  Sure we could have parked in one of the lots along the street, but point is I was told $10 and no mention of valet only.  Then first time we flushed the toilet it broke, had to have maintenance come fix it, then later at night the water coming out of our faucet was brownish. Not a lot of counter space in bathroom.  Overall, we were not impressed.  VERY small rooms, not very many snacks in the store area, no vending machines to choose from either, and for some maintenance reasons the restaurant stopped serving food at 4 PM on a Saturday, poor planning in my opinion! No refrigerator in rooms or complimentary bottles of water.  For the same  price  (actually Express is a little cheaper)we much prefer the Holiday Inn Express a few blocks over, but that was booked so we figured we would stay with Holiday Inn.  We know better for next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r474402647-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474402647</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, nice staff</t>
+  </si>
+  <si>
+    <t>Overall, it is a good value for 2 night stays in downtown. The hotel building and decoration is ok., not that outstanding. Also, they need to improve their elevator. It is a newly renovated hotel. So, hope it will be better. The 2 guys at the desk was really nice and helpful. They are very knowledgable about the area. They showed me the Graffiti basement, which was really cool. We came there on Fri for the game and Art car.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Overall, it is a good value for 2 night stays in downtown. The hotel building and decoration is ok., not that outstanding. Also, they need to improve their elevator. It is a newly renovated hotel. So, hope it will be better. The 2 guys at the desk was really nice and helpful. They are very knowledgable about the area. They showed me the Graffiti basement, which was really cool. We came there on Fri for the game and Art car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r471402750-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471402750</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Nice Downtown Hotel</t>
+  </si>
+  <si>
+    <t>The people at the front desk and very friendly, the room was nice and clean and modern. The view of downtown Houston was nice at night and the shuttle service got me to my meeting on time. I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>The people at the front desk and very friendly, the room was nice and clean and modern. The view of downtown Houston was nice at night and the shuttle service got me to my meeting on time. I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r465828156-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465828156</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Stayed one night before going for test at MD Anderson. Good location and staff was friendly. Nice room and lobby. Is also close to the stadium. Would recommend to anyone needing to go to either place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night before going for test at MD Anderson. Good location and staff was friendly. Nice room and lobby. Is also close to the stadium. Would recommend to anyone needing to go to either place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r464025097-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464025097</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t>Great hotel. Very comfortable rooms and beds. Absolutely love the lighting and the faucet in the restroom. Rooms with view of the pool are a pleasant choice. The breakfast buffet has a little something for everyone. They even offer turkey sausage as an alternative. Parking was very convenient. Loved that there is a security officer on duty stopping all cars to ask what they were doing there. Made the area seem a bit safer. Walking distance to NRG. A little far but not to bad. Was easier then getting an Uber since when events are going on you can get stuck in slow and lengthy traffic. Would definitely choose this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel. Very comfortable rooms and beds. Absolutely love the lighting and the faucet in the restroom. Rooms with view of the pool are a pleasant choice. The breakfast buffet has a little something for everyone. They even offer turkey sausage as an alternative. Parking was very convenient. Loved that there is a security officer on duty stopping all cars to ask what they were doing there. Made the area seem a bit safer. Walking distance to NRG. A little far but not to bad. Was easier then getting an Uber since when events are going on you can get stuck in slow and lengthy traffic. Would definitely choose this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r461017749-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461017749</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Good hotel &amp; kind staff</t>
+  </si>
+  <si>
+    <t>We were here just for leisure. And the staff was phenomenal. The front desk staff is friendly, knowledgable. They make our stay more fun and complete. The hotel is also in a good area, with lots of restaurants and bars around. The restaurant has delicious burger. I love their Farm Fresh. Service is kinda slow. I do understand they are really short staff. But, its not a big deal for us. Anyway, will come back next time if we ever make it out together.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>We were here just for leisure. And the staff was phenomenal. The front desk staff is friendly, knowledgable. They make our stay more fun and complete. The hotel is also in a good area, with lots of restaurants and bars around. The restaurant has delicious burger. I love their Farm Fresh. Service is kinda slow. I do understand they are really short staff. But, its not a big deal for us. Anyway, will come back next time if we ever make it out together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r458823010-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458823010</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>Went for business and very acomodating rooms ans service.Clean and well maintained.Had a problem with my door and the front desk gentleman was very attentive. The problem with my door was my fault (wrong room number).The cleanliness is good.The only standard I would include would be at least two small water bottles complimentary.Well located.Good choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Went for business and very acomodating rooms ans service.Clean and well maintained.Had a problem with my door and the front desk gentleman was very attentive. The problem with my door was my fault (wrong room number).The cleanliness is good.The only standard I would include would be at least two small water bottles complimentary.Well located.Good choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r455782915-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455782915</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION, SUPER CLEAN, EXCELLENT STAFF (BEATRIZ was AWESOME)</t>
+  </si>
+  <si>
+    <t>If you want to stay a newly remodeled hotel with a nice restaurant with reasonable prices...this is it!Wait there is more... The staff is friendly as can be... we were greeted by Beatriz at arrival. She was very nice and professional! Wait there is more: You can walk to everything and they also have a complimentary shuttle!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2017</t>
+  </si>
+  <si>
+    <t>If you want to stay a newly remodeled hotel with a nice restaurant with reasonable prices...this is it!Wait there is more... The staff is friendly as can be... we were greeted by Beatriz at arrival. She was very nice and professional! Wait there is more: You can walk to everything and they also have a complimentary shuttle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r453880404-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453880404</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>It was a very excellent stay. Especially, the service of the staff is above and beyond. My friend and I was there for the Marathon. And Huy and Duy was very nice and helpful. They gave us late check out so that we can shower in the room before leaving. The restaurant has good food. The burgers are delicious. Will come and stay again next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>It was a very excellent stay. Especially, the service of the staff is above and beyond. My friend and I was there for the Marathon. And Huy and Duy was very nice and helpful. They gave us late check out so that we can shower in the room before leaving. The restaurant has good food. The burgers are delicious. Will come and stay again next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r452773721-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452773721</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel in an Up and Coming Area of Downtown</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for an event in downtown Houston and enjoyed the convenience of walking to my events. The hotel is also conveniently located on the city's Metro rail if you prefer not to walk. The Burger Theory restaurant is very good for a casual burger and beer and breakfast is excellent. The front desk staff was wonderful and welcoming. The area is seeing a residential boom so it is definitely up and coming in this area of downtown which is neat to see. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for an event in downtown Houston and enjoyed the convenience of walking to my events. The hotel is also conveniently located on the city's Metro rail if you prefer not to walk. The Burger Theory restaurant is very good for a casual burger and beer and breakfast is excellent. The front desk staff was wonderful and welcoming. The area is seeing a residential boom so it is definitely up and coming in this area of downtown which is neat to see. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r445883266-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445883266</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob </t>
+  </si>
+  <si>
+    <t>Great accommodations, checked in late staff was very accommodating. Restruarant was quick and tasty. Location was very accessible from major freeways. Great view of Houston skyline. Whenever my travels take me back thru Houston I will definitely stay there again MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Great accommodations, checked in late staff was very accommodating. Restruarant was quick and tasty. Location was very accessible from major freeways. Great view of Houston skyline. Whenever my travels take me back thru Houston I will definitely stay there again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r445010281-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445010281</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Love the hotel</t>
+  </si>
+  <si>
+    <t>Came there for conference in the convention center. Love it! Great staff, very friendly and helpful. Nice 20min walk to the convention center. Many restaurants in between and delicious! Weather was awesome in December comparing to Michigan.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came there for conference in the convention center. Love it! Great staff, very friendly and helpful. Nice 20min walk to the convention center. Many restaurants in between and delicious! Weather was awesome in December comparing to Michigan.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r444760806-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444760806</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and good location</t>
+  </si>
+  <si>
+    <t>Honestly, I gave it 5 out of 5 because of the staff. The hotel building is pretty old and worth only 3.5 star in my opinion. The staff told us that the hotel is just newly open so, we hope it will be better in future. They have valet service for $27, pretty pricey but its downtown so I assume its like this everywhere. The hallway where my room is on has a funky weird smell. The staff is great. We did not stop by the restaurant since we planned to go other place already. But from Valet to Front desk, they really take care of us. Ali,and the guy Lan ( hope its right), was really helpful and took care of luggage for us even though they were doing valet. The staff Hui Duy and Latoya was excellent and knowledgeable and the most helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded December 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2016</t>
+  </si>
+  <si>
+    <t>Honestly, I gave it 5 out of 5 because of the staff. The hotel building is pretty old and worth only 3.5 star in my opinion. The staff told us that the hotel is just newly open so, we hope it will be better in future. They have valet service for $27, pretty pricey but its downtown so I assume its like this everywhere. The hallway where my room is on has a funky weird smell. The staff is great. We did not stop by the restaurant since we planned to go other place already. But from Valet to Front desk, they really take care of us. Ali,and the guy Lan ( hope its right), was really helpful and took care of luggage for us even though they were doing valet. The staff Hui Duy and Latoya was excellent and knowledgeable and the most helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r438239281-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438239281</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Gr8 stay</t>
+  </si>
+  <si>
+    <t>My stay at Holiday Inn was great! The guy at the front desk Nick was super cool,very helpful and made sure that I was 100% taken care of! I would recommend this Hotel for anyone visiting in Houston in downtown area. Conveniently close to so many things downtown. This place is 10 out of 10MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>My stay at Holiday Inn was great! The guy at the front desk Nick was super cool,very helpful and made sure that I was 100% taken care of! I would recommend this Hotel for anyone visiting in Houston in downtown area. Conveniently close to so many things downtown. This place is 10 out of 10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r437222292-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437222292</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Cozy Stay and Great Service!!</t>
+  </si>
+  <si>
+    <t>This was hotel is in such a great location! It is near lots of cool attractions in downtown Houston. The hotel staff really did an excellent job from start to finish. The guy at the front desk, Nick, really went out of his way to make sure we have a wonderful stay!! The beds were extremely comfortable and the breakfast was amazing. Shoutout to the Holiday Inn we had a nice time.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>This was hotel is in such a great location! It is near lots of cool attractions in downtown Houston. The hotel staff really did an excellent job from start to finish. The guy at the front desk, Nick, really went out of his way to make sure we have a wonderful stay!! The beds were extremely comfortable and the breakfast was amazing. Shoutout to the Holiday Inn we had a nice time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r436811301-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436811301</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Hotel and restaurant</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Friendly and helpful staff. Burger Theory restaurant staff member David awesome service. Definitely would come back. Out of sight place. Great location. Kudos to entire facility and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Friendly and helpful staff. Burger Theory restaurant staff member David awesome service. Definitely would come back. Out of sight place. Great location. Kudos to entire facility and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r435726266-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435726266</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Good stay excellent staff</t>
+  </si>
+  <si>
+    <t>We stayed there last weekend for leisure and the stay was nice in general. The hotel building needs to have some touch-ups,( like parking elevator; room condition). It is just newly open, so I guess they will work on those soon. ( hopefullyWe gave staff 5 star on their hard work and their professional hospitality. We see Huy, Duy and Mark was running back and forth from valet getting guest and our cars, housekeeping cleaning, even delivering ice to our room, to front desk all the time even though their job is Front Desk agents. It looked like they were short staff but these guys really took care of everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there last weekend for leisure and the stay was nice in general. The hotel building needs to have some touch-ups,( like parking elevator; room condition). It is just newly open, so I guess they will work on those soon. ( hopefullyWe gave staff 5 star on their hard work and their professional hospitality. We see Huy, Duy and Mark was running back and forth from valet getting guest and our cars, housekeeping cleaning, even delivering ice to our room, to front desk all the time even though their job is Front Desk agents. It looked like they were short staff but these guys really took care of everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r435711981-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435711981</t>
+  </si>
+  <si>
+    <t>Great stay in downtown Houston, Texas</t>
+  </si>
+  <si>
+    <t>My wife and I were in Houston, Texas this past weekend for the International Quilt Festival and stayed at the Holiday Inn - downtown.  The stay was very good.  The hotel staff service was "excellent'.  Any questions or needs we had were met with enthusiasm and excitement.(Note: I had locked my luggage and did not have my luggage key with me. The hotel manager on duty quickly assisted me to open it.) This location have an onsite restaurant that had excellent food.  Valor parking is a little pricing at $27 per night, but then again, we're talking a downtown parking garage...........so it was worth it.  All in all, my wife and I had a great stay.  TIP: If you're going to pay for a suite, ask for the corner suite at Main and Pease........"excellent view of the Galleria as well as other parts of downtown.  Lastly, you have to try the 2nd floor patio area...........I had it practically all to myself!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were in Houston, Texas this past weekend for the International Quilt Festival and stayed at the Holiday Inn - downtown.  The stay was very good.  The hotel staff service was "excellent'.  Any questions or needs we had were met with enthusiasm and excitement.(Note: I had locked my luggage and did not have my luggage key with me. The hotel manager on duty quickly assisted me to open it.) This location have an onsite restaurant that had excellent food.  Valor parking is a little pricing at $27 per night, but then again, we're talking a downtown parking garage...........so it was worth it.  All in all, my wife and I had a great stay.  TIP: If you're going to pay for a suite, ask for the corner suite at Main and Pease........"excellent view of the Galleria as well as other parts of downtown.  Lastly, you have to try the 2nd floor patio area...........I had it practically all to myself!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r435212872-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435212872</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Far Below Standards</t>
+  </si>
+  <si>
+    <t>This is, by far, the worst Holiday Inn I have stayed in, in the US. It starts with the Front Desk, where some staff may have had their hospitality training in Harris County Department of Corrections. The Breakfast in “Burger Theory” is not good. I had breakfast included in my rate, and I tried, for the first 3 nights, to chose different items on the limited menu (there is no breakfast buffet). They all came dripping in fat, the omelet overcooked, the wrap so oily that I could not hold it in hands. After 3 tries, I decided not to have breakfast there any more.I had booked for 8 nights, but on the 4th night, the air-conditioning in my room decided to be as noisy as a older generation 747 taking off. That was it, I decided to leave this dump in favor of a more hospitable venue.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This is, by far, the worst Holiday Inn I have stayed in, in the US. It starts with the Front Desk, where some staff may have had their hospitality training in Harris County Department of Corrections. The Breakfast in “Burger Theory” is not good. I had breakfast included in my rate, and I tried, for the first 3 nights, to chose different items on the limited menu (there is no breakfast buffet). They all came dripping in fat, the omelet overcooked, the wrap so oily that I could not hold it in hands. After 3 tries, I decided not to have breakfast there any more.I had booked for 8 nights, but on the 4th night, the air-conditioning in my room decided to be as noisy as a older generation 747 taking off. That was it, I decided to leave this dump in favor of a more hospitable venue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r431066856-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431066856</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Mixed feelings</t>
+  </si>
+  <si>
+    <t>If I were to judge this hotel on staff alone, it would rate 5. In other areas, there are a few drawbacks.Location is good from the public transport point of view, but it is otherwise a quiet area with few activities. This makes the restaurant, Burger Theory, problematic, for although it does burgers well, the limited choice makes it hard to eat here more than once or twice. Breakfast offers only a few choices, although it is quite reasonably priced.The rooms are well sized and comfortable, but the lack of an in-room safe was a surprise. So was the air conditioning, where the fan was either off or blasting cold air across the bed. Internet speeds were good, and was free (as an IHG Rewards member). Housekeeping was excellent and scored points with me for acknowledging the daily tip I left - that's rare.Finally, although my room was pre-paid, the express checkout bill contained a charge for one night. The error, which took some time to correct, was blamed on a change in their credit card program.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>If I were to judge this hotel on staff alone, it would rate 5. In other areas, there are a few drawbacks.Location is good from the public transport point of view, but it is otherwise a quiet area with few activities. This makes the restaurant, Burger Theory, problematic, for although it does burgers well, the limited choice makes it hard to eat here more than once or twice. Breakfast offers only a few choices, although it is quite reasonably priced.The rooms are well sized and comfortable, but the lack of an in-room safe was a surprise. So was the air conditioning, where the fan was either off or blasting cold air across the bed. Internet speeds were good, and was free (as an IHG Rewards member). Housekeeping was excellent and scored points with me for acknowledging the daily tip I left - that's rare.Finally, although my room was pre-paid, the express checkout bill contained a charge for one night. The error, which took some time to correct, was blamed on a change in their credit card program.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r431003847-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431003847</t>
+  </si>
+  <si>
+    <t>Nice stay, good location</t>
+  </si>
+  <si>
+    <t>Everything was great. Staff are nice and professionally. I was here during the convention and the restaurant was really busy. They have a patio and fitness center. The hotel is next to the Metro train, which is convenient to go around. Karen, Ana, Brian, Huy, Duy from front desk was very cool and friendly to talk to. David from the Burger Theory was a rock star. Jay also was helpful and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was great. Staff are nice and professionally. I was here during the convention and the restaurant was really busy. They have a patio and fitness center. The hotel is next to the Metro train, which is convenient to go around. Karen, Ana, Brian, Huy, Duy from front desk was very cool and friendly to talk to. David from the Burger Theory was a rock star. Jay also was helpful and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r430991903-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430991903</t>
+  </si>
+  <si>
+    <t>Good Stay, friendly staff</t>
+  </si>
+  <si>
+    <t>You can tell the hotel is just newly open. There is no elevator in the parking garage but they do have nice graffiti artwork inside the garage, which is very cool. They said that the hotel was one of the location for the Street art festival. They looked amazing and good spot for pictures. The staff is very knowledgeable about the area and they are very friendly and active. Room is nice and clean. the restaurant had good food, service was slow, I guess they were busy because of the huge convention in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>You can tell the hotel is just newly open. There is no elevator in the parking garage but they do have nice graffiti artwork inside the garage, which is very cool. They said that the hotel was one of the location for the Street art festival. They looked amazing and good spot for pictures. The staff is very knowledgeable about the area and they are very friendly and active. Room is nice and clean. the restaurant had good food, service was slow, I guess they were busy because of the huge convention in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r427805947-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427805947</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>New Hotel in convenient location</t>
+  </si>
+  <si>
+    <t>Convenient location with public transport (Metro) on the doorstep.The rooms and beds are comfortable and offer free high speed Wi-Fi (it worked perfectly for both my notebook and phone). The bathroom comes with all necessary amenities. But as it is the case with most US based hotels the rooms are not equipped with a fridge and a safe (the fridge can be ordered against a surcharge). The Burger Theory Restaurant is the only food outlet in the hotel and has also a bar which is great to get some snacks and drinks (burgers, hot-dogs etc. and nice draft beers) until late. If the hotel is not fully occupied breakfast is served a la carte, instead of buffet. All the staff are very polite and customer friendly which is a big asset of this hotel. Overall good value for money!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Convenient location with public transport (Metro) on the doorstep.The rooms and beds are comfortable and offer free high speed Wi-Fi (it worked perfectly for both my notebook and phone). The bathroom comes with all necessary amenities. But as it is the case with most US based hotels the rooms are not equipped with a fridge and a safe (the fridge can be ordered against a surcharge). The Burger Theory Restaurant is the only food outlet in the hotel and has also a bar which is great to get some snacks and drinks (burgers, hot-dogs etc. and nice draft beers) until late. If the hotel is not fully occupied breakfast is served a la carte, instead of buffet. All the staff are very polite and customer friendly which is a big asset of this hotel. Overall good value for money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r422493443-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422493443</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>The staff makes all the difference!</t>
+  </si>
+  <si>
+    <t>This hotel, right on the light rail line, just recently was renovated.  The lobby is open, airy, and cheerful, with stunning light sculptures.  The aesthetics and color palettes are modern and sophisticated.  Burger Theory, a marvelous surprise of a bistro, is just off of the lobby and also accessible from the street.  There is a very large second floor outdoor terrace where you can enjoy a cocktail, the Houston skyline, or a cigarette or fine cigar.  The fitness room is also on the second floor with expansive views of the skyline.
+The rooms are very clean, comfortable and attractive with high-definition flat panel televisions on the wall.  All lights and fixtures are modern and updated.  The granite countertop in the bath was a bit small, but I think they were limited by the space of the pre-renovation bathrooms.  The bath has a wonderful rain-style showerhead with excellent water pressure.  The bed linens were cool and comfortable and there was an ample supply of towels in the bathroom that (for once) weren’t too small!  The sound insulation must be pretty good since I only heard another guest once or twice, and they were in the hallway, not in adjoining rooms.
+What really earns a five-star rating from me, though, was the incredible staff.  At check in, I was greeted by the enthusiastic and friendly front desk team of Huy and Duy.  I don’t know how he remembered, but every time Duy...This hotel, right on the light rail line, just recently was renovated.  The lobby is open, airy, and cheerful, with stunning light sculptures.  The aesthetics and color palettes are modern and sophisticated.  Burger Theory, a marvelous surprise of a bistro, is just off of the lobby and also accessible from the street.  There is a very large second floor outdoor terrace where you can enjoy a cocktail, the Houston skyline, or a cigarette or fine cigar.  The fitness room is also on the second floor with expansive views of the skyline.The rooms are very clean, comfortable and attractive with high-definition flat panel televisions on the wall.  All lights and fixtures are modern and updated.  The granite countertop in the bath was a bit small, but I think they were limited by the space of the pre-renovation bathrooms.  The bath has a wonderful rain-style showerhead with excellent water pressure.  The bed linens were cool and comfortable and there was an ample supply of towels in the bathroom that (for once) weren’t too small!  The sound insulation must be pretty good since I only heard another guest once or twice, and they were in the hallway, not in adjoining rooms.What really earns a five-star rating from me, though, was the incredible staff.  At check in, I was greeted by the enthusiastic and friendly front desk team of Huy and Duy.  I don’t know how he remembered, but every time Duy saw me during my four day visit, he always greeted me with a cheerful “Hi, Miss Michelle!”  The morning after check-in, I returned to the front desk to let them know about some minor issues in my room that I thought they should know about.  They were normal, renovation related punchlist items.  The morning front desk team was Karen and Anna, and they could not have been more friendly and responsive.  Karen, the front desk supervisor, bent over backwards to address everything and moved me to a new room with some reward points thrown in for my troubles.  We inspected my new (larger) room and everything was right with the world.  A day later, I discovered that I had left my bath scrunchy in my previous room.  When it could not be found, Karen went out and bought me a new one!!  Who does that?  By the end of my stay, I came to the firm conclusion that, if I lived in Houston, I would want Karen to be my friend.I highly recommend the Burger Theory bistro.  They have a generous Happy Hour from 4-6 pm and excellent burgers.  It’s not just burgers, though.  I had some of the best grilled vegetables I’ve ever had.  Their breakfast menu is quite good also.  I had a piping hot breakfast wrap with fluffy scrambled eggs, fresh spinach and mushrooms, and provolone cheese with a side of breakfast potatoes that was to die for!  Mykala and David were the two bartenders I met in the evening at the end of my days.  They were both delightful and efficient.  Get David, a former New Orleans bartender, to make you one of his Hurricane’s from scratch.  They’re awesome, plus you’ll get to enjoy his sharp, funny wit!If you want to be treated like a VIP, this hotel is for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>This hotel, right on the light rail line, just recently was renovated.  The lobby is open, airy, and cheerful, with stunning light sculptures.  The aesthetics and color palettes are modern and sophisticated.  Burger Theory, a marvelous surprise of a bistro, is just off of the lobby and also accessible from the street.  There is a very large second floor outdoor terrace where you can enjoy a cocktail, the Houston skyline, or a cigarette or fine cigar.  The fitness room is also on the second floor with expansive views of the skyline.
+The rooms are very clean, comfortable and attractive with high-definition flat panel televisions on the wall.  All lights and fixtures are modern and updated.  The granite countertop in the bath was a bit small, but I think they were limited by the space of the pre-renovation bathrooms.  The bath has a wonderful rain-style showerhead with excellent water pressure.  The bed linens were cool and comfortable and there was an ample supply of towels in the bathroom that (for once) weren’t too small!  The sound insulation must be pretty good since I only heard another guest once or twice, and they were in the hallway, not in adjoining rooms.
+What really earns a five-star rating from me, though, was the incredible staff.  At check in, I was greeted by the enthusiastic and friendly front desk team of Huy and Duy.  I don’t know how he remembered, but every time Duy...This hotel, right on the light rail line, just recently was renovated.  The lobby is open, airy, and cheerful, with stunning light sculptures.  The aesthetics and color palettes are modern and sophisticated.  Burger Theory, a marvelous surprise of a bistro, is just off of the lobby and also accessible from the street.  There is a very large second floor outdoor terrace where you can enjoy a cocktail, the Houston skyline, or a cigarette or fine cigar.  The fitness room is also on the second floor with expansive views of the skyline.The rooms are very clean, comfortable and attractive with high-definition flat panel televisions on the wall.  All lights and fixtures are modern and updated.  The granite countertop in the bath was a bit small, but I think they were limited by the space of the pre-renovation bathrooms.  The bath has a wonderful rain-style showerhead with excellent water pressure.  The bed linens were cool and comfortable and there was an ample supply of towels in the bathroom that (for once) weren’t too small!  The sound insulation must be pretty good since I only heard another guest once or twice, and they were in the hallway, not in adjoining rooms.What really earns a five-star rating from me, though, was the incredible staff.  At check in, I was greeted by the enthusiastic and friendly front desk team of Huy and Duy.  I don’t know how he remembered, but every time Duy saw me during my four day visit, he always greeted me with a cheerful “Hi, Miss Michelle!”  The morning after check-in, I returned to the front desk to let them know about some minor issues in my room that I thought they should know about.  They were normal, renovation related punchlist items.  The morning front desk team was Karen and Anna, and they could not have been more friendly and responsive.  Karen, the front desk supervisor, bent over backwards to address everything and moved me to a new room with some reward points thrown in for my troubles.  We inspected my new (larger) room and everything was right with the world.  A day later, I discovered that I had left my bath scrunchy in my previous room.  When it could not be found, Karen went out and bought me a new one!!  Who does that?  By the end of my stay, I came to the firm conclusion that, if I lived in Houston, I would want Karen to be my friend.I highly recommend the Burger Theory bistro.  They have a generous Happy Hour from 4-6 pm and excellent burgers.  It’s not just burgers, though.  I had some of the best grilled vegetables I’ve ever had.  Their breakfast menu is quite good also.  I had a piping hot breakfast wrap with fluffy scrambled eggs, fresh spinach and mushrooms, and provolone cheese with a side of breakfast potatoes that was to die for!  Mykala and David were the two bartenders I met in the evening at the end of my days.  They were both delightful and efficient.  Get David, a former New Orleans bartender, to make you one of his Hurricane’s from scratch.  They’re awesome, plus you’ll get to enjoy his sharp, funny wit!If you want to be treated like a VIP, this hotel is for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r421896483-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421896483</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Burger Theory Restaurant a Must along with Holiday Inn Hospitality in this IHG Downtown Hotel</t>
+  </si>
+  <si>
+    <t>Simply put...it's the people who earn a TOP 5 Rating for this restaurant and hotel property.  F&amp;B Supervisor JAY mixes great Happy Hour (4-6 pm). Well drinks.  TREMAINE offered such a warm greeting upon arrival at Burger Therapy [known for the fav "Longhorn"], seating at 1st choice booth.  He is very attentive throughout the casual dining experience.  Tasty food.  On the Hotel experience, it's all defined by the arrival experience... and again, the TOP 5 Rating is in order with the Front Desk staffing by DUY.  His South Vietnam graces and American business skills are noteworthy.  Way to go...THANKS to this stellar IHG Team of epic worldwide acclaim.  Jese'MoreShow less</t>
+  </si>
+  <si>
+    <t>Simply put...it's the people who earn a TOP 5 Rating for this restaurant and hotel property.  F&amp;B Supervisor JAY mixes great Happy Hour (4-6 pm). Well drinks.  TREMAINE offered such a warm greeting upon arrival at Burger Therapy [known for the fav "Longhorn"], seating at 1st choice booth.  He is very attentive throughout the casual dining experience.  Tasty food.  On the Hotel experience, it's all defined by the arrival experience... and again, the TOP 5 Rating is in order with the Front Desk staffing by DUY.  His South Vietnam graces and American business skills are noteworthy.  Way to go...THANKS to this stellar IHG Team of epic worldwide acclaim.  Jese'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r418277578-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418277578</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Friendly, helpful, welcoming</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now, really friendly and welcoming people.Comfortable room, well appointed.Good service.Convenient location with public transport on the doorstep.Free guest laundry is a bonus.Food reasonable and good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now, really friendly and welcoming people.Comfortable room, well appointed.Good service.Convenient location with public transport on the doorstep.Free guest laundry is a bonus.Food reasonable and good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r412705846-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412705846</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>Despite a busy lobby on a Saturday evening I recently received an exceptional level of customer service from the gentleman working the front desk.  I believe his name was Melvin and he went out of his way to be accommodating and professional.  His demeanor speaks volumes about the importance Holiday Inn puts on making their guests feel welcome.I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Despite a busy lobby on a Saturday evening I recently received an exceptional level of customer service from the gentleman working the front desk.  I believe his name was Melvin and he went out of his way to be accommodating and professional.  His demeanor speaks volumes about the importance Holiday Inn puts on making their guests feel welcome.I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r410791285-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410791285</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>houston to new zealand</t>
+  </si>
+  <si>
+    <t>what an awesome place to stay.comfortable beds and staff are super friendly.recommend to all ....Reception staff went out of their way to help store our luggage whilst waiting for our flights. Mark,Duy and Bryan..MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, Manager at Holiday Inn Houston Downtown, responded to this reviewResponded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2016</t>
+  </si>
+  <si>
+    <t>what an awesome place to stay.comfortable beds and staff are super friendly.recommend to all ....Reception staff went out of their way to help store our luggage whilst waiting for our flights. Mark,Duy and Bryan..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r405452986-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405452986</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Everything was excellent!</t>
+  </si>
+  <si>
+    <t>My family and I had to take care of some business in Houston and decided to stay at this particular Holiday Inn. Best decision ever! Everyone was so friendly and professional; Duy, the agent who helped me check in, was great, and Karen, who helped me check out, was also wonderful. They made me feel very welcome and at ease. The rooms were very clean and well-kept, the air conditioning kept the room at a good temperature, and the beds were very comfortable. I am even impressed with the professionalism of the Assistant General Manager, Mark; needless to say, everyone at the Holiday Inn cares about doing a job well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>My family and I had to take care of some business in Houston and decided to stay at this particular Holiday Inn. Best decision ever! Everyone was so friendly and professional; Duy, the agent who helped me check in, was great, and Karen, who helped me check out, was also wonderful. They made me feel very welcome and at ease. The rooms were very clean and well-kept, the air conditioning kept the room at a good temperature, and the beds were very comfortable. I am even impressed with the professionalism of the Assistant General Manager, Mark; needless to say, everyone at the Holiday Inn cares about doing a job well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r405047484-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405047484</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>With the help of the sales manager, Jasmine, we booked 13 rooms for my son's powerlifting team. Jasmine was amazing and so helpful during the entire process! The hotel itself is very clean and comfortable. It is right in the middle of downtown so we were able to get to the tournament quickly. All the staff were accommodating.  The restaurant, Burger Theory, had a large variety of food, not to mention the bartender was GREAT! Thanks to all the staff that helped to make this trip successful! We will definitely return next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>With the help of the sales manager, Jasmine, we booked 13 rooms for my son's powerlifting team. Jasmine was amazing and so helpful during the entire process! The hotel itself is very clean and comfortable. It is right in the middle of downtown so we were able to get to the tournament quickly. All the staff were accommodating.  The restaurant, Burger Theory, had a large variety of food, not to mention the bartender was GREAT! Thanks to all the staff that helped to make this trip successful! We will definitely return next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r403036639-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403036639</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff are great </t>
+  </si>
+  <si>
+    <t>We had a number of problems during our stay at Holiday Inn. The air-conditioning was way too loud however the staff at the front desk were more than happy to move us into a new room. Unfortunately the new room was just as loud. There seems to be a problem with the pipes in this hotel as the shower would not drain and the toilet would not flush. The maintenance guy was more than happy to help out and we were given a free breakfast for the hassle. The staff at the front desk were amazing and went above and beyond to make our stay as comfortable as possible. Apart from those issues, the hotel was nice and comfortable with a king bed. We did try to have a drink at the burger theory downstairs however waited for 20+ minutes to be served only to be told that the wine we wanted had to be brought up. We waited a further 15 minutes without a drink. The restaurant appears to be very understaffed with non interested employees. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a number of problems during our stay at Holiday Inn. The air-conditioning was way too loud however the staff at the front desk were more than happy to move us into a new room. Unfortunately the new room was just as loud. There seems to be a problem with the pipes in this hotel as the shower would not drain and the toilet would not flush. The maintenance guy was more than happy to help out and we were given a free breakfast for the hassle. The staff at the front desk were amazing and went above and beyond to make our stay as comfortable as possible. Apart from those issues, the hotel was nice and comfortable with a king bed. We did try to have a drink at the burger theory downstairs however waited for 20+ minutes to be served only to be told that the wine we wanted had to be brought up. We waited a further 15 minutes without a drink. The restaurant appears to be very understaffed with non interested employees. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r402041292-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402041292</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Front desk went over and beyond expectations..</t>
+  </si>
+  <si>
+    <t>I was in a room that an AC had issues and was too late to move so i called in the morning to let the hotel know and i was offered a free room comp for my issues. I did not receive my breakfast room service and was told they would make it up ..Im really happy that the front desk supervisor was excited to make me comfortable she even came up to make sure i was happyI think this is the staff that needs to train other holiday inn staff how to make you want to only deal with holiday inn in houston texas..Thank u we are very happyTracy underwood And Shawn fittonMoreShow less</t>
+  </si>
+  <si>
+    <t>I was in a room that an AC had issues and was too late to move so i called in the morning to let the hotel know and i was offered a free room comp for my issues. I did not receive my breakfast room service and was told they would make it up ..Im really happy that the front desk supervisor was excited to make me comfortable she even came up to make sure i was happyI think this is the staff that needs to train other holiday inn staff how to make you want to only deal with holiday inn in houston texas..Thank u we are very happyTracy underwood And Shawn fittonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r401846431-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401846431</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Holiday inn Houston downtown</t>
+  </si>
+  <si>
+    <t>The people here are awesome Nyesha at the desk is the nicest person everDavid Browne was fantastic at the bar and restaurant Clean great roomsTrain is right at the front door. very close to Minute Maid park. 10 minute ride to NRG stadium The food and drink selection is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>The people here are awesome Nyesha at the desk is the nicest person everDavid Browne was fantastic at the bar and restaurant Clean great roomsTrain is right at the front door. very close to Minute Maid park. 10 minute ride to NRG stadium The food and drink selection is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r401352057-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401352057</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Best hotel staff ever!!!</t>
+  </si>
+  <si>
+    <t>Pros:The staff was really friendly and extremely professional. They were genuinely interested in making my stay as memorable as possible. Especially Karen &amp; Ana!!! The breakfast was also very nice. I had an omelette inside a tortilla; you should try it.   The rib eye stake was also nice!Cons:The fact that the safe was not inside the room and it was at the lobby. The air condition can sometimes be a bit more noisy than it should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:The staff was really friendly and extremely professional. They were genuinely interested in making my stay as memorable as possible. Especially Karen &amp; Ana!!! The breakfast was also very nice. I had an omelette inside a tortilla; you should try it.   The rib eye stake was also nice!Cons:The fact that the safe was not inside the room and it was at the lobby. The air condition can sometimes be a bit more noisy than it should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r398447099-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398447099</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Ball game pit stop</t>
+  </si>
+  <si>
+    <t>Stayed here for a night after a quick Astros game trip. It was walking distance to stadium. Staff was helpful, lobby is nice, rest of the place isn't quiet finished out. No ice makers on the floors, painting and tiling not finished. Workout from was large and appointed, but also unfinished. But overall it was clean, and felt safe. Parking was 18 dollars overnight. Would stay again if going to game.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a night after a quick Astros game trip. It was walking distance to stadium. Staff was helpful, lobby is nice, rest of the place isn't quiet finished out. No ice makers on the floors, painting and tiling not finished. Workout from was large and appointed, but also unfinished. But overall it was clean, and felt safe. Parking was 18 dollars overnight. Would stay again if going to game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r395801431-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395801431</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>nice folks, noisy AC</t>
+  </si>
+  <si>
+    <t>It appears that this hotel has been recently updated. Overall it had a clean and modern appearance, including my room. The bed was comfortable, with a selection of pillows, and on the 15th floor the street noise was muffled.However, the AC in 1510 was very UNmuffled. Usually you can set a hotel AC to run the fan constantly to provide uniform white noise. This unit, however, ran both the fan and the chiller in that mode, so it froze me out and I had to reset to auto mode. Then it started and stopped very abruptly and loudly every 5 or 10 minutes all night. Oooof.Frankly, I prefer a good breakfast buffet to an order-from-the-menu restaurant. The service was quick and friendly, and it was not crowded on either morning so it didn't delay me much. The bar had a good IPA on tap, which is not universally available in Houston.The wifi was good, though it's not obvious that the hotel was full, so the connection was not likely heavily used.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>It appears that this hotel has been recently updated. Overall it had a clean and modern appearance, including my room. The bed was comfortable, with a selection of pillows, and on the 15th floor the street noise was muffled.However, the AC in 1510 was very UNmuffled. Usually you can set a hotel AC to run the fan constantly to provide uniform white noise. This unit, however, ran both the fan and the chiller in that mode, so it froze me out and I had to reset to auto mode. Then it started and stopped very abruptly and loudly every 5 or 10 minutes all night. Oooof.Frankly, I prefer a good breakfast buffet to an order-from-the-menu restaurant. The service was quick and friendly, and it was not crowded on either morning so it didn't delay me much. The bar had a good IPA on tap, which is not universally available in Houston.The wifi was good, though it's not obvious that the hotel was full, so the connection was not likely heavily used.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r395093170-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395093170</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights between June 22-24.  None of us had been to Houston before and we were pleasantly surprised with the location and the upkeep of the hotel.  We arrived quite early (10:30am) and the front desk staff was very helpful in getting us a room to check into.  The level of customer service at the front desk during check-in and throughout our stay was excellent.  I would note that the staff was not very helpful when asking for recommendations on where to go for dinner, or for fun in the evenings - we were left to our own devices on that and that is one minor suggestion I'd make.The room was small.  However it was very clean and in good condition.  It's my understanding the hotel was recently renovated and you can tell.  The rooms were also quiet which was nice, even considering our room fronted on a fairly busy street.The restaurant, Burger Theory, provides room service and the food is good, though a little expensive.Overall, a good experience and I'd definitely stay here again in Houston.  It's within a short trip to the museums and to the baseball park.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights between June 22-24.  None of us had been to Houston before and we were pleasantly surprised with the location and the upkeep of the hotel.  We arrived quite early (10:30am) and the front desk staff was very helpful in getting us a room to check into.  The level of customer service at the front desk during check-in and throughout our stay was excellent.  I would note that the staff was not very helpful when asking for recommendations on where to go for dinner, or for fun in the evenings - we were left to our own devices on that and that is one minor suggestion I'd make.The room was small.  However it was very clean and in good condition.  It's my understanding the hotel was recently renovated and you can tell.  The rooms were also quiet which was nice, even considering our room fronted on a fairly busy street.The restaurant, Burger Theory, provides room service and the food is good, though a little expensive.Overall, a good experience and I'd definitely stay here again in Houston.  It's within a short trip to the museums and to the baseball park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r389887396-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389887396</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>New or Updated property with nice modern rooms!</t>
+  </si>
+  <si>
+    <t>Loved this hotel.  It seems that Holiday Inn designs are more modern with really nice amenities in the rooms.  The bed and pillows were very comfortable.  The location was great as well.  Right next to the light rail.  The hotel even gave us free passes when we checked in.  The restaurant was a burger place with more options.  It was open very late and had a nice big bar.  Service was exceptional throughout all the departments.  I recommend staying on your visit to Houston.  The price is right!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Loved this hotel.  It seems that Holiday Inn designs are more modern with really nice amenities in the rooms.  The bed and pillows were very comfortable.  The location was great as well.  Right next to the light rail.  The hotel even gave us free passes when we checked in.  The restaurant was a burger place with more options.  It was open very late and had a nice big bar.  Service was exceptional throughout all the departments.  I recommend staying on your visit to Houston.  The price is right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r387662221-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387662221</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn for business and was very impressed. The Hotel was very clean, the bed was very comfortable, and I had a nice view of downtown, but the one thing that really stood out was the high level of service I received from the front desk.i was checked in by Duy. He was extremely helpful and professional. You can really tell that he enjoys what he does. The following night after check in, my key was not working, so I went downstairs to get it fixed or replaced. Duy immediately remembered my name and what room I was in. I was impressed. This is the kind of employee at a hotel that really defines the word hospitality. He made my stay a great one. Thank you Duy.Thanks to your high level of customer service, my company employees will be staying at your hotel quite a bit in the coming months. MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded July 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn for business and was very impressed. The Hotel was very clean, the bed was very comfortable, and I had a nice view of downtown, but the one thing that really stood out was the high level of service I received from the front desk.i was checked in by Duy. He was extremely helpful and professional. You can really tell that he enjoys what he does. The following night after check in, my key was not working, so I went downstairs to get it fixed or replaced. Duy immediately remembered my name and what room I was in. I was impressed. This is the kind of employee at a hotel that really defines the word hospitality. He made my stay a great one. Thank you Duy.Thanks to your high level of customer service, my company employees will be staying at your hotel quite a bit in the coming months. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r387482487-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387482487</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Great Location</t>
+  </si>
+  <si>
+    <t>The hotel looks beautiful on the inside and the staff is great.  I wanted to mention a few staff members specifically that assisted me during my staff.  Duy was the front desk agent that checked us in and he was awesome.  Worked quickly and was very professional.  David assisted us getting our luggage from the car to the room and always had a smile on his face.  And finally, Karen on the front desk checked us out and she was very warm and friendly.  I would love to have any of these three come work for me!  
+Now for the bad.  I agree with a lot of the other reviews on here that the HVAC units in the rooms need to be replaced!  My thermostat showed 73 when I arrived at 2pm...and I put it down to 68 to cool the room down more.  When I checked out the next morning, the thermostat still showed 70 and I know the unit run all night long because it was very noisy.  Not really a great night's sleep because I need to have it cold when I sleep...but it wasn't completely horrible either.  
+The blackout drapes in my room did not shut completely...still about an inch between the two, so the light from outside still showed through.  And finally, the last thing that was a little annoying is that they do not have ice machines or vending on the floors.  David was...The hotel looks beautiful on the inside and the staff is great.  I wanted to mention a few staff members specifically that assisted me during my staff.  Duy was the front desk agent that checked us in and he was awesome.  Worked quickly and was very professional.  David assisted us getting our luggage from the car to the room and always had a smile on his face.  And finally, Karen on the front desk checked us out and she was very warm and friendly.  I would love to have any of these three come work for me!  Now for the bad.  I agree with a lot of the other reviews on here that the HVAC units in the rooms need to be replaced!  My thermostat showed 73 when I arrived at 2pm...and I put it down to 68 to cool the room down more.  When I checked out the next morning, the thermostat still showed 70 and I know the unit run all night long because it was very noisy.  Not really a great night's sleep because I need to have it cold when I sleep...but it wasn't completely horrible either.  The blackout drapes in my room did not shut completely...still about an inch between the two, so the light from outside still showed through.  And finally, the last thing that was a little annoying is that they do not have ice machines or vending on the floors.  David was nice enough to bring ice up to our rooms, but it was still a little inconvenient.  Overall, I will definitely stay at this hotel again when in the area.  All the issues I encountered during my stay was more than made up for by the courtesy of the staff.  I am sure the issues will be worked on soon...so I think give them some time and it will be a great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>The hotel looks beautiful on the inside and the staff is great.  I wanted to mention a few staff members specifically that assisted me during my staff.  Duy was the front desk agent that checked us in and he was awesome.  Worked quickly and was very professional.  David assisted us getting our luggage from the car to the room and always had a smile on his face.  And finally, Karen on the front desk checked us out and she was very warm and friendly.  I would love to have any of these three come work for me!  
+Now for the bad.  I agree with a lot of the other reviews on here that the HVAC units in the rooms need to be replaced!  My thermostat showed 73 when I arrived at 2pm...and I put it down to 68 to cool the room down more.  When I checked out the next morning, the thermostat still showed 70 and I know the unit run all night long because it was very noisy.  Not really a great night's sleep because I need to have it cold when I sleep...but it wasn't completely horrible either.  
+The blackout drapes in my room did not shut completely...still about an inch between the two, so the light from outside still showed through.  And finally, the last thing that was a little annoying is that they do not have ice machines or vending on the floors.  David was...The hotel looks beautiful on the inside and the staff is great.  I wanted to mention a few staff members specifically that assisted me during my staff.  Duy was the front desk agent that checked us in and he was awesome.  Worked quickly and was very professional.  David assisted us getting our luggage from the car to the room and always had a smile on his face.  And finally, Karen on the front desk checked us out and she was very warm and friendly.  I would love to have any of these three come work for me!  Now for the bad.  I agree with a lot of the other reviews on here that the HVAC units in the rooms need to be replaced!  My thermostat showed 73 when I arrived at 2pm...and I put it down to 68 to cool the room down more.  When I checked out the next morning, the thermostat still showed 70 and I know the unit run all night long because it was very noisy.  Not really a great night's sleep because I need to have it cold when I sleep...but it wasn't completely horrible either.  The blackout drapes in my room did not shut completely...still about an inch between the two, so the light from outside still showed through.  And finally, the last thing that was a little annoying is that they do not have ice machines or vending on the floors.  David was nice enough to bring ice up to our rooms, but it was still a little inconvenient.  Overall, I will definitely stay at this hotel again when in the area.  All the issues I encountered during my stay was more than made up for by the courtesy of the staff.  I am sure the issues will be worked on soon...so I think give them some time and it will be a great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r384651743-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384651743</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice but needs some improvement </t>
+  </si>
+  <si>
+    <t>Friendly staff and courteous. All though was not acknowledged or thanked for being a platinum rewards card holder when checking in. The hotel is newly renovated. The decor is very nice. Rooms are clean and average. Booked a room with fridge and microwave but our room seemed to not have one for some reason. Beds are comfortable as Holiday Inn beds usually are. There are very nice ice buckets in the rooms and also signs on each floor that say ice machine to imply they have ice for your convenience. But after going from floor to floor down each hall they do not. And apparently this has been a problem for some time . The terrace on the second floor is a great place to relax. The Burger restaurant is great. They actually have turkey burgers on the menu which is fabulous. Parking is not free. $18 a day for self parking. When checking out make sure to check the charges the hotel has charged you. Had several problems with the bill. And unauthorized charges on my credit card. Has been three days so far that we are still trying to straighten it out. Love the Holiday Inn brand hotels so I hope this hotel can work out its kinks. MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and courteous. All though was not acknowledged or thanked for being a platinum rewards card holder when checking in. The hotel is newly renovated. The decor is very nice. Rooms are clean and average. Booked a room with fridge and microwave but our room seemed to not have one for some reason. Beds are comfortable as Holiday Inn beds usually are. There are very nice ice buckets in the rooms and also signs on each floor that say ice machine to imply they have ice for your convenience. But after going from floor to floor down each hall they do not. And apparently this has been a problem for some time . The terrace on the second floor is a great place to relax. The Burger restaurant is great. They actually have turkey burgers on the menu which is fabulous. Parking is not free. $18 a day for self parking. When checking out make sure to check the charges the hotel has charged you. Had several problems with the bill. And unauthorized charges on my credit card. Has been three days so far that we are still trying to straighten it out. Love the Holiday Inn brand hotels so I hope this hotel can work out its kinks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r383283495-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383283495</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Convenient, good price, great staff, last minute availability</t>
+  </si>
+  <si>
+    <t>Got stranded in Houston at midnight (yeah, thanks United). Had to look for a hotel, got online, city was really busy due to some sort of sport thing going on, but Holiday Inn was easy to book. Got cab there, staff had my booking, everything was really easy. The staff were all, without exception, really helpful - from handing out maps and info, organizing late checkout, to booking an airport transfer, they all deserve praise. Room was small but adequate. Bathroom small but spotless. Seems like a pretty new building, but maybe a little cheap (looks OK now, but furnishings may not wear well). Location is convenient for downtown. There's a bar/grill thing in the lobby, which was really rowdy, so I didn't bother. Elevators were slow. Wi-fi was slower. But overall a good overnight stay, especially considering the last minute arrangement.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Got stranded in Houston at midnight (yeah, thanks United). Had to look for a hotel, got online, city was really busy due to some sort of sport thing going on, but Holiday Inn was easy to book. Got cab there, staff had my booking, everything was really easy. The staff were all, without exception, really helpful - from handing out maps and info, organizing late checkout, to booking an airport transfer, they all deserve praise. Room was small but adequate. Bathroom small but spotless. Seems like a pretty new building, but maybe a little cheap (looks OK now, but furnishings may not wear well). Location is convenient for downtown. There's a bar/grill thing in the lobby, which was really rowdy, so I didn't bother. Elevators were slow. Wi-fi was slower. But overall a good overnight stay, especially considering the last minute arrangement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r382110548-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382110548</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Location, location, location</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is very conveniently located right across the subway stop, and next to Bus Terminal.This is a new hotel with all modern facilities. The lobby and the rooms have a very contemporary look. The rooms though are very small as compared top other Holiday Inns that I have stayed in.The staff was very friendly and helpful in guiding us to all the locationsThis does not serve breakfast, but has a McDonalds right across. There are other breakfast locations nearby. This being in the business district, a lot of breakfast and lunch options are closed over weekend.The Hermann Park, Zoo, Toyota Centre are all nearbyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is very conveniently located right across the subway stop, and next to Bus Terminal.This is a new hotel with all modern facilities. The lobby and the rooms have a very contemporary look. The rooms though are very small as compared top other Holiday Inns that I have stayed in.The staff was very friendly and helpful in guiding us to all the locationsThis does not serve breakfast, but has a McDonalds right across. There are other breakfast locations nearby. This being in the business district, a lot of breakfast and lunch options are closed over weekend.The Hermann Park, Zoo, Toyota Centre are all nearbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r376443491-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376443491</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Terrific staff, great king bed</t>
+  </si>
+  <si>
+    <t>We checked into a stinky, cat-friendly Airbnb and as much as we wanted that, moved out as soon as the allergies kicked in. We negotiated a great rate at this hotel as we drove and the staff was fantastic, greeting us with kindness and comped parking. The rooms were clean and simple, the bed was really comfortable and everyone seemed to know our names, especially the super terrific night staff. It's not fancy, neither is the burger bar attached, but it is a good place to stay, and I recommend talking to the desk about rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2016</t>
+  </si>
+  <si>
+    <t>We checked into a stinky, cat-friendly Airbnb and as much as we wanted that, moved out as soon as the allergies kicked in. We negotiated a great rate at this hotel as we drove and the staff was fantastic, greeting us with kindness and comped parking. The rooms were clean and simple, the bed was really comfortable and everyone seemed to know our names, especially the super terrific night staff. It's not fancy, neither is the burger bar attached, but it is a good place to stay, and I recommend talking to the desk about rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r375390669-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375390669</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Great central location</t>
+  </si>
+  <si>
+    <t>We travelled to Houston for a relatives wedding, and the hotel was booked by the wedding party. The hotel was perfect for what we needed, the staff were polite and very helpful. The hotel had been refurbished to a high standard of design and finish, and I would certainly recommend this hotel to others visiting Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>We travelled to Houston for a relatives wedding, and the hotel was booked by the wedding party. The hotel was perfect for what we needed, the staff were polite and very helpful. The hotel had been refurbished to a high standard of design and finish, and I would certainly recommend this hotel to others visiting Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r374854570-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374854570</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Amazing front desk staff and close to Metro train</t>
+  </si>
+  <si>
+    <t>When we arrived, we were greeted by Huy and Duy, whose big smiles made a great first impression. Throughout our trip, they were both very helpful--especially Duy, who was a real pleasure to talk to and went out of his way to assist. Other friendly front desk staff, Karen from London and Ana from Croatia, also deserve to be recognized.  They were a pleasure to talk to. My son had just visited Croatia, so he and Ana had a great chat.
+Our room was fine--fairly small but fine, with comfortable beds and lots of towels etc. We would have LOVED to have a fridge--it makes travelling so much easier. Would hope the hotel could provide these in every room in future. Quiet at night which we appreciated. Chair in room was broken and when we mentioned it a new one was delivered. Maid service was a bit odd in that they did not replace kleenex (box was empty) or tea (we had used it all), but those are small things. There should be a recycling bin in rooms for newspapers, cans, etc.
+The entire hotel is non-smoking which is great.  There is no pool ( and we love swimming ) but apparently you can use the Y next door. I'm not sure if there is a charge for that or not.
+Our room rate (through booking.com) included breakfast, and the food was good and servers friendly. The restaurant is REALLY...When we arrived, we were greeted by Huy and Duy, whose big smiles made a great first impression. Throughout our trip, they were both very helpful--especially Duy, who was a real pleasure to talk to and went out of his way to assist. Other friendly front desk staff, Karen from London and Ana from Croatia, also deserve to be recognized.  They were a pleasure to talk to. My son had just visited Croatia, so he and Ana had a great chat.Our room was fine--fairly small but fine, with comfortable beds and lots of towels etc. We would have LOVED to have a fridge--it makes travelling so much easier. Would hope the hotel could provide these in every room in future. Quiet at night which we appreciated. Chair in room was broken and when we mentioned it a new one was delivered. Maid service was a bit odd in that they did not replace kleenex (box was empty) or tea (we had used it all), but those are small things. There should be a recycling bin in rooms for newspapers, cans, etc.The entire hotel is non-smoking which is great.  There is no pool ( and we love swimming ) but apparently you can use the Y next door. I'm not sure if there is a charge for that or not.Our room rate (through booking.com) included breakfast, and the food was good and servers friendly. The restaurant is REALLY hot--a few customers left because of it. The whole main floor seemed to have issues with heat--I expect this is being worked on.After coming home I read on tripadvisor that the hotel had an outdoor patio for guests to use. I was not aware of this when we were there and we would have used it if we had known.The location of the hotel is pretty good--a short walk to the city hall area, where we visited the market on Wednesday for lunch. The location is great in its proximity to the metro train line. For $1.25 we travelled to the zoo, museums, etc. The train tickets are good for three hours, so you can travel anywhere and hop on and off the train as you wish.A tip if you are looking to save money: you can take a city bus (not the train) directly from the airport almost to the hotel for $1.25. You can store your luggage under the bus and get off a couple of blocks from the hotel. It's fairly slow but what a bargain! Bus driver was very helpful in giving directions.There were not a lot of shops or restaurants near the hotel, which is a bit of a negative of the location, but we managed okay by walking and taking the train to get to where we needed to go. There is a Guadalajara restaurant several blocks away that served great food.The best thing that happened at this hotel was on the day we checked out. We had left our luggage there to be stored, and planned to return to retrieve it before heading to the aiport. On our way back to the hotel from the art museum we were caught in a torrential rainstorm and arrived back at the hotel completely soaked. I asked the wonderul Huy at the front desk if we could borrow a towel to get dried off. He kindly offered us the use of a room so that we could shower and change into dry clothes. It was completey unexpected and way above and beyond what we had hoped for. It was wonderful and made our flight home much more comfortable. Huy, you are the best!!Overall a fine stay with amazing staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived, we were greeted by Huy and Duy, whose big smiles made a great first impression. Throughout our trip, they were both very helpful--especially Duy, who was a real pleasure to talk to and went out of his way to assist. Other friendly front desk staff, Karen from London and Ana from Croatia, also deserve to be recognized.  They were a pleasure to talk to. My son had just visited Croatia, so he and Ana had a great chat.
+Our room was fine--fairly small but fine, with comfortable beds and lots of towels etc. We would have LOVED to have a fridge--it makes travelling so much easier. Would hope the hotel could provide these in every room in future. Quiet at night which we appreciated. Chair in room was broken and when we mentioned it a new one was delivered. Maid service was a bit odd in that they did not replace kleenex (box was empty) or tea (we had used it all), but those are small things. There should be a recycling bin in rooms for newspapers, cans, etc.
+The entire hotel is non-smoking which is great.  There is no pool ( and we love swimming ) but apparently you can use the Y next door. I'm not sure if there is a charge for that or not.
+Our room rate (through booking.com) included breakfast, and the food was good and servers friendly. The restaurant is REALLY...When we arrived, we were greeted by Huy and Duy, whose big smiles made a great first impression. Throughout our trip, they were both very helpful--especially Duy, who was a real pleasure to talk to and went out of his way to assist. Other friendly front desk staff, Karen from London and Ana from Croatia, also deserve to be recognized.  They were a pleasure to talk to. My son had just visited Croatia, so he and Ana had a great chat.Our room was fine--fairly small but fine, with comfortable beds and lots of towels etc. We would have LOVED to have a fridge--it makes travelling so much easier. Would hope the hotel could provide these in every room in future. Quiet at night which we appreciated. Chair in room was broken and when we mentioned it a new one was delivered. Maid service was a bit odd in that they did not replace kleenex (box was empty) or tea (we had used it all), but those are small things. There should be a recycling bin in rooms for newspapers, cans, etc.The entire hotel is non-smoking which is great.  There is no pool ( and we love swimming ) but apparently you can use the Y next door. I'm not sure if there is a charge for that or not.Our room rate (through booking.com) included breakfast, and the food was good and servers friendly. The restaurant is REALLY hot--a few customers left because of it. The whole main floor seemed to have issues with heat--I expect this is being worked on.After coming home I read on tripadvisor that the hotel had an outdoor patio for guests to use. I was not aware of this when we were there and we would have used it if we had known.The location of the hotel is pretty good--a short walk to the city hall area, where we visited the market on Wednesday for lunch. The location is great in its proximity to the metro train line. For $1.25 we travelled to the zoo, museums, etc. The train tickets are good for three hours, so you can travel anywhere and hop on and off the train as you wish.A tip if you are looking to save money: you can take a city bus (not the train) directly from the airport almost to the hotel for $1.25. You can store your luggage under the bus and get off a couple of blocks from the hotel. It's fairly slow but what a bargain! Bus driver was very helpful in giving directions.There were not a lot of shops or restaurants near the hotel, which is a bit of a negative of the location, but we managed okay by walking and taking the train to get to where we needed to go. There is a Guadalajara restaurant several blocks away that served great food.The best thing that happened at this hotel was on the day we checked out. We had left our luggage there to be stored, and planned to return to retrieve it before heading to the aiport. On our way back to the hotel from the art museum we were caught in a torrential rainstorm and arrived back at the hotel completely soaked. I asked the wonderul Huy at the front desk if we could borrow a towel to get dried off. He kindly offered us the use of a room so that we could shower and change into dry clothes. It was completey unexpected and way above and beyond what we had hoped for. It was wonderful and made our flight home much more comfortable. Huy, you are the best!!Overall a fine stay with amazing staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r362666018-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362666018</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Buisness Trip</t>
+  </si>
+  <si>
+    <t>Staff were phenomenal, So outgoing and personable.  You can't beat the location.  The rooms were clean and the bed was so comfortable.  Had dinner at Burger Theory so delicious.  Definitely coming back on my next trip to HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Staff were phenomenal, So outgoing and personable.  You can't beat the location.  The rooms were clean and the bed was so comfortable.  Had dinner at Burger Theory so delicious.  Definitely coming back on my next trip to HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r362333652-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362333652</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Final Four Stay</t>
+  </si>
+  <si>
+    <t>Hi!We stayed at this hotel for the final four tournament and were extremely pleased! Great location and more importantly great customer service. The hotel is new and needs elevator work but overall clean and up to date facilities.Duy at the front desk was fabulous! He needs a raise. LolWe also spent a lot of time at the connecting restaurant/bar. WOW! You talk about 2 great bartenders - Calli and Julie! So so so much fun and helped us so much with our stay. The best burger we had ever eaten! We will definitely visit here when we visit Houston.Great job Houston with an amazing final four and great hotel experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Hi!We stayed at this hotel for the final four tournament and were extremely pleased! Great location and more importantly great customer service. The hotel is new and needs elevator work but overall clean and up to date facilities.Duy at the front desk was fabulous! He needs a raise. LolWe also spent a lot of time at the connecting restaurant/bar. WOW! You talk about 2 great bartenders - Calli and Julie! So so so much fun and helped us so much with our stay. The best burger we had ever eaten! We will definitely visit here when we visit Houston.Great job Houston with an amazing final four and great hotel experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r362142508-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362142508</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Stayed here Final Four weekend.One elevator broke entire stay which made for long waits. Staff in restaurent/bar was friendly but service was very slow, also returned one evening to find housekeeping had skipped my room. On the plus location is very good right by train stop and front desk staff all very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here Final Four weekend.One elevator broke entire stay which made for long waits. Staff in restaurent/bar was friendly but service was very slow, also returned one evening to find housekeeping had skipped my room. On the plus location is very good right by train stop and front desk staff all very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r357153541-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357153541</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location and Excellent Staff</t>
+  </si>
+  <si>
+    <t>Holiday Inn Downtown 
+I was staying in Downtown part of Houston for the first time. The hotel is located in front of a metro line. There is a metro station at about200 meters and it is the most convenient way to travel around the downtown area and other districts of Houston. I took the metro in the morning during my stay and went for a run in Herman Park. It was convenient and pocket-friendly. 
+Hotel check-in was fast and everything was done efficiently. I reached hotel early and front-desk lady, Karen checked the status of my room and found that room is ready. I was given directions to elevator along with free metro ride ticket for my family. That was valid for a day. 
+I went into my room and was a bit disappointed with the size of the room. It was a small room in which two queen beds were squeezed in. There is hardly any place to keep stuff. Luckily, I was traveling with only a small backpack and was able to fit things comfortably inside. If someone is traveling with big luggage bags then he is going to have issues with space management in the room. 
+From my room, metro line was visible. My 3-year-old was very excited to see metro and he blocked the window bed for himself. 
+We came down after settling in as we had plans to go to the zoo. We asked the...Holiday Inn Downtown I was staying in Downtown part of Houston for the first time. The hotel is located in front of a metro line. There is a metro station at about200 meters and it is the most convenient way to travel around the downtown area and other districts of Houston. I took the metro in the morning during my stay and went for a run in Herman Park. It was convenient and pocket-friendly. Hotel check-in was fast and everything was done efficiently. I reached hotel early and front-desk lady, Karen checked the status of my room and found that room is ready. I was given directions to elevator along with free metro ride ticket for my family. That was valid for a day. I went into my room and was a bit disappointed with the size of the room. It was a small room in which two queen beds were squeezed in. There is hardly any place to keep stuff. Luckily, I was traveling with only a small backpack and was able to fit things comfortably inside. If someone is traveling with big luggage bags then he is going to have issues with space management in the room. From my room, metro line was visible. My 3-year-old was very excited to see metro and he blocked the window bed for himself. We came down after settling in as we had plans to go to the zoo. We asked the directions to the zoo from Karen. She was full of energy and forthcoming in helping us out with directions by taking a metro. She even took help of a local person to ensure that I get the right directions to my destination. Karen didn't hide behind policies and procedures and helped us out with great enthusiasm. She even ensured that we have hotel phone numbers handy and we can call the hotel in case we are stuck somewhere. She was only trying to be helpful and I appreciated every bit of it. I have no hesitation in saying that my experience of staying at Holiday Inn was elevated from good to excellent by Karen and other staff members.MoreShow less</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Downtown 
+I was staying in Downtown part of Houston for the first time. The hotel is located in front of a metro line. There is a metro station at about200 meters and it is the most convenient way to travel around the downtown area and other districts of Houston. I took the metro in the morning during my stay and went for a run in Herman Park. It was convenient and pocket-friendly. 
+Hotel check-in was fast and everything was done efficiently. I reached hotel early and front-desk lady, Karen checked the status of my room and found that room is ready. I was given directions to elevator along with free metro ride ticket for my family. That was valid for a day. 
+I went into my room and was a bit disappointed with the size of the room. It was a small room in which two queen beds were squeezed in. There is hardly any place to keep stuff. Luckily, I was traveling with only a small backpack and was able to fit things comfortably inside. If someone is traveling with big luggage bags then he is going to have issues with space management in the room. 
+From my room, metro line was visible. My 3-year-old was very excited to see metro and he blocked the window bed for himself. 
+We came down after settling in as we had plans to go to the zoo. We asked the...Holiday Inn Downtown I was staying in Downtown part of Houston for the first time. The hotel is located in front of a metro line. There is a metro station at about200 meters and it is the most convenient way to travel around the downtown area and other districts of Houston. I took the metro in the morning during my stay and went for a run in Herman Park. It was convenient and pocket-friendly. Hotel check-in was fast and everything was done efficiently. I reached hotel early and front-desk lady, Karen checked the status of my room and found that room is ready. I was given directions to elevator along with free metro ride ticket for my family. That was valid for a day. I went into my room and was a bit disappointed with the size of the room. It was a small room in which two queen beds were squeezed in. There is hardly any place to keep stuff. Luckily, I was traveling with only a small backpack and was able to fit things comfortably inside. If someone is traveling with big luggage bags then he is going to have issues with space management in the room. From my room, metro line was visible. My 3-year-old was very excited to see metro and he blocked the window bed for himself. We came down after settling in as we had plans to go to the zoo. We asked the directions to the zoo from Karen. She was full of energy and forthcoming in helping us out with directions by taking a metro. She even took help of a local person to ensure that I get the right directions to my destination. Karen didn't hide behind policies and procedures and helped us out with great enthusiasm. She even ensured that we have hotel phone numbers handy and we can call the hotel in case we are stuck somewhere. She was only trying to be helpful and I appreciated every bit of it. I have no hesitation in saying that my experience of staying at Holiday Inn was elevated from good to excellent by Karen and other staff members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r351451499-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351451499</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn</t>
+  </si>
+  <si>
+    <t>I only stayed here one night. But, I will definitely stay again the next time I am in Houston. This Holiday Inn has a nice burger joint attached to it.  You can get a beer and eat right there at the hotel. The workout facility was really nice too. The room was clean and up to date. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>I only stayed here one night. But, I will definitely stay again the next time I am in Houston. This Holiday Inn has a nice burger joint attached to it.  You can get a beer and eat right there at the hotel. The workout facility was really nice too. The room was clean and up to date. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r350145981-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350145981</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Average room with great customer service</t>
+  </si>
+  <si>
+    <t>The first thing you walk in you will be greeted by great smiles at the front desk. To name a few, Karen, Huy, Duy, Mark, Ana, Arti (a dark long hair girl who works at night) who always offer friendly service to their guests.It is located near the YMCA gym and close to central business districts. Bell metro station is opposite the hotel and if you walk a few blocks away there is a bus (Green bus) offering free service around the downtown area. We did experience a few issues with the room charges, hot water supply, air conditioning over our stay but the people at front desk were so accommodating. They acted very quickly to rectify the issues.The rooms are ok, wifi was great, the beds are very comfortable, hair dryer was efficient. The only downside is there is no kettle and the bathroom had little or no storage.There are washing machines and dryers on the second floor if you wish to do laundry.If you are in town for business you can stay in this hotel otherwise maybe wiser to look at hotels outside of downtown because it is very quiet on weekends when most of the shops are closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at Holiday Inn Houston Downtown, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>The first thing you walk in you will be greeted by great smiles at the front desk. To name a few, Karen, Huy, Duy, Mark, Ana, Arti (a dark long hair girl who works at night) who always offer friendly service to their guests.It is located near the YMCA gym and close to central business districts. Bell metro station is opposite the hotel and if you walk a few blocks away there is a bus (Green bus) offering free service around the downtown area. We did experience a few issues with the room charges, hot water supply, air conditioning over our stay but the people at front desk were so accommodating. They acted very quickly to rectify the issues.The rooms are ok, wifi was great, the beds are very comfortable, hair dryer was efficient. The only downside is there is no kettle and the bathroom had little or no storage.There are washing machines and dryers on the second floor if you wish to do laundry.If you are in town for business you can stay in this hotel otherwise maybe wiser to look at hotels outside of downtown because it is very quiet on weekends when most of the shops are closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r314012289-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314012289</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn - Let Down</t>
+  </si>
+  <si>
+    <t>If you are looking for a place with great southern hospitality, please look somewhere else.  The customer service at this hotel was beyond disrespectful, and the rooms and venue itself were a complete disappointment.  I took my wife to this hotel and completely embarrassed myself in trying to provide her a nice place to stay over a weekend.  We stayed one night, checked out, and made arrangements to stay elsewhere in disbelief.  Parking is EXTREMELY limited, service is awful, and the breakfast provided was well... lacking to say the least.  Go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded October 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2015</t>
+  </si>
+  <si>
+    <t>If you are looking for a place with great southern hospitality, please look somewhere else.  The customer service at this hotel was beyond disrespectful, and the rooms and venue itself were a complete disappointment.  I took my wife to this hotel and completely embarrassed myself in trying to provide her a nice place to stay over a weekend.  We stayed one night, checked out, and made arrangements to stay elsewhere in disbelief.  Parking is EXTREMELY limited, service is awful, and the breakfast provided was well... lacking to say the least.  Go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6563513-r274560029-Holiday_Inn_Houston_Downtown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274560029</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>OK if you need to be in this area</t>
+  </si>
+  <si>
+    <t>A typical Holiday Inn. The only reason to stay here is if you need to be downtown. The desk staff seemed a bit unprofessional. One item that seemed very strange was the sheets - they felt like paper! The bedding was something they bragged about. There is only high priced valet parking at the hotel. They forgot to charge me for it until I brought it to their attention - never asked if I had a car - never acknowledged I was a Member of their frequent guest program. The lobby was not inviting and it was not clear where anything was or if there was anything else there. Just slept and left for 2 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston Downtown, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>A typical Holiday Inn. The only reason to stay here is if you need to be downtown. The desk staff seemed a bit unprofessional. One item that seemed very strange was the sheets - they felt like paper! The bedding was something they bragged about. There is only high priced valet parking at the hotel. They forgot to charge me for it until I brought it to their attention - never asked if I had a car - never acknowledged I was a Member of their frequent guest program. The lobby was not inviting and it was not clear where anything was or if there was anything else there. Just slept and left for 2 days.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2644,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2676,6209 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>173</v>
+      </c>
+      <c r="X24" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>200</v>
+      </c>
+      <c r="X28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>200</v>
+      </c>
+      <c r="X29" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>221</v>
+      </c>
+      <c r="X31" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>229</v>
+      </c>
+      <c r="X32" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>250</v>
+      </c>
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>263</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>275</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>269</v>
+      </c>
+      <c r="O41" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>313</v>
+      </c>
+      <c r="X45" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s">
+        <v>320</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>306</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>321</v>
+      </c>
+      <c r="X46" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>329</v>
+      </c>
+      <c r="X47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>337</v>
+      </c>
+      <c r="X48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>346</v>
+      </c>
+      <c r="X49" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>354</v>
+      </c>
+      <c r="O50" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>355</v>
+      </c>
+      <c r="X50" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s">
+        <v>361</v>
+      </c>
+      <c r="L51" t="s">
+        <v>362</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>363</v>
+      </c>
+      <c r="X51" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>371</v>
+      </c>
+      <c r="X52" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="K53" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s">
+        <v>378</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>379</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O54" t="s">
+        <v>85</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>388</v>
+      </c>
+      <c r="X54" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>392</v>
+      </c>
+      <c r="J55" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" t="s">
+        <v>394</v>
+      </c>
+      <c r="L55" t="s">
+        <v>395</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>388</v>
+      </c>
+      <c r="X55" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>398</v>
+      </c>
+      <c r="J56" t="s">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s">
+        <v>401</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>402</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>403</v>
+      </c>
+      <c r="X56" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>406</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>407</v>
+      </c>
+      <c r="J57" t="s">
+        <v>408</v>
+      </c>
+      <c r="K57" t="s">
+        <v>409</v>
+      </c>
+      <c r="L57" t="s">
+        <v>410</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>402</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>403</v>
+      </c>
+      <c r="X57" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>413</v>
+      </c>
+      <c r="J58" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" t="s">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s">
+        <v>416</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>402</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>417</v>
+      </c>
+      <c r="X58" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>421</v>
+      </c>
+      <c r="J59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K59" t="s">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s">
+        <v>424</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>425</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>426</v>
+      </c>
+      <c r="X59" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>430</v>
+      </c>
+      <c r="J60" t="s">
+        <v>431</v>
+      </c>
+      <c r="K60" t="s">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>425</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>434</v>
+      </c>
+      <c r="X60" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>438</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>440</v>
+      </c>
+      <c r="L61" t="s">
+        <v>441</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>442</v>
+      </c>
+      <c r="X61" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>446</v>
+      </c>
+      <c r="J62" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s">
+        <v>449</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>425</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>450</v>
+      </c>
+      <c r="X62" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>453</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>454</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>455</v>
+      </c>
+      <c r="L63" t="s">
+        <v>456</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>450</v>
+      </c>
+      <c r="X63" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>458</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>459</v>
+      </c>
+      <c r="J64" t="s">
+        <v>460</v>
+      </c>
+      <c r="K64" t="s">
+        <v>461</v>
+      </c>
+      <c r="L64" t="s">
+        <v>462</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>463</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>450</v>
+      </c>
+      <c r="X64" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>465</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>469</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>463</v>
+      </c>
+      <c r="O65" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>470</v>
+      </c>
+      <c r="X65" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>474</v>
+      </c>
+      <c r="J66" t="s">
+        <v>467</v>
+      </c>
+      <c r="K66" t="s">
+        <v>475</v>
+      </c>
+      <c r="L66" t="s">
+        <v>476</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>463</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>470</v>
+      </c>
+      <c r="X66" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>478</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>479</v>
+      </c>
+      <c r="J67" t="s">
+        <v>467</v>
+      </c>
+      <c r="K67" t="s">
+        <v>480</v>
+      </c>
+      <c r="L67" t="s">
+        <v>481</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>463</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>470</v>
+      </c>
+      <c r="X67" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>484</v>
+      </c>
+      <c r="J68" t="s">
+        <v>485</v>
+      </c>
+      <c r="K68" t="s">
+        <v>486</v>
+      </c>
+      <c r="L68" t="s">
+        <v>487</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>488</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>489</v>
+      </c>
+      <c r="X68" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>492</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>493</v>
+      </c>
+      <c r="J69" t="s">
+        <v>494</v>
+      </c>
+      <c r="K69" t="s">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s">
+        <v>496</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>488</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>497</v>
+      </c>
+      <c r="X69" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>488</v>
+      </c>
+      <c r="O70" t="s">
+        <v>75</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>497</v>
+      </c>
+      <c r="X70" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>511</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>512</v>
+      </c>
+      <c r="X71" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>516</v>
+      </c>
+      <c r="J72" t="s">
+        <v>517</v>
+      </c>
+      <c r="K72" t="s">
+        <v>518</v>
+      </c>
+      <c r="L72" t="s">
+        <v>519</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>520</v>
+      </c>
+      <c r="O72" t="s">
+        <v>75</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>512</v>
+      </c>
+      <c r="X72" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>523</v>
+      </c>
+      <c r="J73" t="s">
+        <v>524</v>
+      </c>
+      <c r="K73" t="s">
+        <v>525</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>520</v>
+      </c>
+      <c r="O73" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>527</v>
+      </c>
+      <c r="X73" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>530</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>531</v>
+      </c>
+      <c r="J74" t="s">
+        <v>532</v>
+      </c>
+      <c r="K74" t="s">
+        <v>533</v>
+      </c>
+      <c r="L74" t="s">
+        <v>534</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>520</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>535</v>
+      </c>
+      <c r="X74" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>538</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>539</v>
+      </c>
+      <c r="J75" t="s">
+        <v>540</v>
+      </c>
+      <c r="K75" t="s">
+        <v>541</v>
+      </c>
+      <c r="L75" t="s">
+        <v>542</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>511</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>535</v>
+      </c>
+      <c r="X75" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>544</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>545</v>
+      </c>
+      <c r="J76" t="s">
+        <v>546</v>
+      </c>
+      <c r="K76" t="s">
+        <v>547</v>
+      </c>
+      <c r="L76" t="s">
+        <v>548</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>520</v>
+      </c>
+      <c r="O76" t="s">
+        <v>133</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>535</v>
+      </c>
+      <c r="X76" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>550</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>551</v>
+      </c>
+      <c r="J77" t="s">
+        <v>552</v>
+      </c>
+      <c r="K77" t="s">
+        <v>553</v>
+      </c>
+      <c r="L77" t="s">
+        <v>554</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>520</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>535</v>
+      </c>
+      <c r="X77" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>556</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>557</v>
+      </c>
+      <c r="J78" t="s">
+        <v>558</v>
+      </c>
+      <c r="K78" t="s">
+        <v>559</v>
+      </c>
+      <c r="L78" t="s">
+        <v>560</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>535</v>
+      </c>
+      <c r="X78" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>562</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>563</v>
+      </c>
+      <c r="J79" t="s">
+        <v>564</v>
+      </c>
+      <c r="K79" t="s">
+        <v>565</v>
+      </c>
+      <c r="L79" t="s">
+        <v>566</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>520</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>535</v>
+      </c>
+      <c r="X79" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>568</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>569</v>
+      </c>
+      <c r="J80" t="s">
+        <v>570</v>
+      </c>
+      <c r="K80" t="s">
+        <v>571</v>
+      </c>
+      <c r="L80" t="s">
+        <v>572</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>511</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>573</v>
+      </c>
+      <c r="X80" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>576</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>577</v>
+      </c>
+      <c r="J81" t="s">
+        <v>578</v>
+      </c>
+      <c r="K81" t="s">
+        <v>579</v>
+      </c>
+      <c r="L81" t="s">
+        <v>580</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>511</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>581</v>
+      </c>
+      <c r="X81" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>584</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>585</v>
+      </c>
+      <c r="J82" t="s">
+        <v>586</v>
+      </c>
+      <c r="K82" t="s">
+        <v>587</v>
+      </c>
+      <c r="L82" t="s">
+        <v>588</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>589</v>
+      </c>
+      <c r="O82" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>590</v>
+      </c>
+      <c r="X82" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>593</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>594</v>
+      </c>
+      <c r="J83" t="s">
+        <v>595</v>
+      </c>
+      <c r="K83" t="s">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s">
+        <v>597</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>589</v>
+      </c>
+      <c r="O83" t="s">
+        <v>133</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>598</v>
+      </c>
+      <c r="X83" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>601</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>602</v>
+      </c>
+      <c r="J84" t="s">
+        <v>603</v>
+      </c>
+      <c r="K84" t="s">
+        <v>604</v>
+      </c>
+      <c r="L84" t="s">
+        <v>605</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>589</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>606</v>
+      </c>
+      <c r="X84" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>609</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>610</v>
+      </c>
+      <c r="J85" t="s">
+        <v>603</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>589</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>613</v>
+      </c>
+      <c r="X85" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>616</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>617</v>
+      </c>
+      <c r="J86" t="s">
+        <v>618</v>
+      </c>
+      <c r="K86" t="s">
+        <v>619</v>
+      </c>
+      <c r="L86" t="s">
+        <v>620</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>589</v>
+      </c>
+      <c r="O86" t="s">
+        <v>133</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>621</v>
+      </c>
+      <c r="X86" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>624</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>625</v>
+      </c>
+      <c r="J87" t="s">
+        <v>626</v>
+      </c>
+      <c r="K87" t="s">
+        <v>627</v>
+      </c>
+      <c r="L87" t="s">
+        <v>628</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>629</v>
+      </c>
+      <c r="O87" t="s">
+        <v>75</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>630</v>
+      </c>
+      <c r="X87" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>633</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>634</v>
+      </c>
+      <c r="J88" t="s">
+        <v>635</v>
+      </c>
+      <c r="K88" t="s">
+        <v>636</v>
+      </c>
+      <c r="L88" t="s">
+        <v>637</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>638</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>639</v>
+      </c>
+      <c r="X88" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>642</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>643</v>
+      </c>
+      <c r="J89" t="s">
+        <v>644</v>
+      </c>
+      <c r="K89" t="s">
+        <v>645</v>
+      </c>
+      <c r="L89" t="s">
+        <v>646</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>647</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>648</v>
+      </c>
+      <c r="X89" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>651</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>652</v>
+      </c>
+      <c r="J90" t="s">
+        <v>653</v>
+      </c>
+      <c r="K90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L90" t="s">
+        <v>655</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>647</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>656</v>
+      </c>
+      <c r="X90" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>659</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>660</v>
+      </c>
+      <c r="J91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K91" t="s">
+        <v>662</v>
+      </c>
+      <c r="L91" t="s">
+        <v>663</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>647</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>656</v>
+      </c>
+      <c r="X91" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>665</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>666</v>
+      </c>
+      <c r="J92" t="s">
+        <v>667</v>
+      </c>
+      <c r="K92" t="s">
+        <v>668</v>
+      </c>
+      <c r="L92" t="s">
+        <v>669</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>638</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>670</v>
+      </c>
+      <c r="X92" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>673</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>674</v>
+      </c>
+      <c r="J93" t="s">
+        <v>675</v>
+      </c>
+      <c r="K93" t="s">
+        <v>676</v>
+      </c>
+      <c r="L93" t="s">
+        <v>677</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>629</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>678</v>
+      </c>
+      <c r="X93" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>681</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>682</v>
+      </c>
+      <c r="J94" t="s">
+        <v>683</v>
+      </c>
+      <c r="K94" t="s">
+        <v>684</v>
+      </c>
+      <c r="L94" t="s">
+        <v>685</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>686</v>
+      </c>
+      <c r="X94" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>689</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>690</v>
+      </c>
+      <c r="J95" t="s">
+        <v>691</v>
+      </c>
+      <c r="K95" t="s">
+        <v>692</v>
+      </c>
+      <c r="L95" t="s">
+        <v>693</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>638</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>694</v>
+      </c>
+      <c r="X95" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>697</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>698</v>
+      </c>
+      <c r="J96" t="s">
+        <v>699</v>
+      </c>
+      <c r="K96" t="s">
+        <v>700</v>
+      </c>
+      <c r="L96" t="s">
+        <v>701</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>702</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>703</v>
+      </c>
+      <c r="X96" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>706</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>707</v>
+      </c>
+      <c r="J97" t="s">
+        <v>708</v>
+      </c>
+      <c r="K97" t="s">
+        <v>709</v>
+      </c>
+      <c r="L97" t="s">
+        <v>710</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>711</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>712</v>
+      </c>
+      <c r="X97" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>715</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>716</v>
+      </c>
+      <c r="J98" t="s">
+        <v>717</v>
+      </c>
+      <c r="K98" t="s">
+        <v>718</v>
+      </c>
+      <c r="L98" t="s">
+        <v>719</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>720</v>
+      </c>
+      <c r="O98" t="s">
+        <v>133</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>721</v>
+      </c>
+      <c r="X98" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63037</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>724</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>725</v>
+      </c>
+      <c r="J99" t="s">
+        <v>726</v>
+      </c>
+      <c r="K99" t="s">
+        <v>727</v>
+      </c>
+      <c r="L99" t="s">
+        <v>728</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>729</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>730</v>
+      </c>
+      <c r="X99" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
